--- a/Exercises/1. Integer Programming/Oakfield Corporation (Pure IP).xlsx
+++ b/Exercises/1. Integer Programming/Oakfield Corporation (Pure IP).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_A39509E745F06C3EEAEF04B48CE96E870D28DB53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243577A5-F456-46BE-A39D-1E6694ED080F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integer Programming Model" sheetId="4" r:id="rId1"/>
@@ -46,17 +47,30 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -716,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L31" authorId="0" shapeId="0">
+    <comment ref="L31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1668,7 +1682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1793,7 +1807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L32" authorId="0" shapeId="0">
+    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1918,7 +1932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L54" authorId="0" shapeId="0">
+    <comment ref="L54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2394,7 +2408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W54" authorId="0" shapeId="0">
+    <comment ref="W54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2870,7 +2884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L55" authorId="0" shapeId="0">
+    <comment ref="L55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2995,7 +3009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W55" authorId="0" shapeId="0">
+    <comment ref="W55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3120,7 +3134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W82" authorId="0" shapeId="0">
+    <comment ref="W82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -3596,7 +3610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI82" authorId="0" shapeId="0">
+    <comment ref="AI82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -4072,7 +4086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W83" authorId="0" shapeId="0">
+    <comment ref="W83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -4197,7 +4211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI83" authorId="0" shapeId="0">
+    <comment ref="AI83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -5124,9 +5138,6 @@
     <t>Branch &amp; Bound Algorithm</t>
   </si>
   <si>
-    <t>Solver: Primary IP</t>
-  </si>
-  <si>
     <t>ref.</t>
   </si>
   <si>
@@ -5153,11 +5164,14 @@
   <si>
     <t>Carpentry restriction</t>
   </si>
+  <si>
+    <t xml:space="preserve">Solver: Primary IP </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#&quot; &quot;???/???"/>
   </numFmts>
@@ -5277,7 +5291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5428,16 +5442,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5446,15 +5468,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="13" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5462,52 +5484,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="13" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="13" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="13" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="13" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5522,7 +5530,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5533,33 +5541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5579,6 +5560,35 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5793,10 +5803,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5834,9 +5848,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5869,26 +5883,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5921,26 +5918,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6113,407 +6093,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="77"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="2:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="75" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+    </row>
+    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45</v>
-      </c>
-      <c r="H14" s="73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="75" t="s">
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="52" t="s">
+      <c r="F25" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="G25" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="54">
+        <v>5</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D26" s="70">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="2">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5</v>
-      </c>
-      <c r="E27" s="69">
+      <c r="E27" s="54">
         <f>SUMPRODUCT(C26:D26,C27:D27)</f>
         <v>40</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="71">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="56">
         <f>SUMPRODUCT(C26:D26,C28:D28)</f>
         <v>5</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6">
+    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5">
         <v>9</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>5</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f>SUMPRODUCT(C26:D26,C29:D29)</f>
         <v>45</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>45</v>
       </c>
     </row>
@@ -6534,4678 +6496,3931 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AS108"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.26953125" customWidth="1"/>
+    <col min="23" max="23" width="3.54296875" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.5703125" customWidth="1"/>
+    <col min="29" max="29" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.54296875" customWidth="1"/>
     <col min="34" max="34" width="3" customWidth="1"/>
-    <col min="35" max="35" width="3.28515625" customWidth="1"/>
-    <col min="36" max="36" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.26953125" customWidth="1"/>
+    <col min="36" max="36" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="37" max="41" width="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.42578125" customWidth="1"/>
-    <col min="46" max="46" width="2.85546875" customWidth="1"/>
+    <col min="42" max="42" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.453125" customWidth="1"/>
+    <col min="46" max="46" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="83" t="s">
         <v>43</v>
       </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="J6">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="L9" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+    </row>
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="20">
+        <v>-8</v>
+      </c>
+      <c r="E12">
+        <v>-5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>6</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2">
-        <v>45</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="L9" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="97"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="21">
-        <v>-8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>6</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f>H13/D13</f>
         <v>6</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="2"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>2</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>9</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>5</v>
       </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="25">
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24">
         <v>45</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <f>H14/D14</f>
         <v>5</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="2"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="2"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="2"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <f t="shared" ref="D17:H18" si="0">D12-($D12*D$19)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>-0.55555555555555536</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
+        <f>H12-($D12*H$19)</f>
+        <v>40</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <f t="shared" si="0"/>
         <v>-0.1111111111111111</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <f>H18/E18</f>
         <v>2.25</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="2"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f>D14/$D$14</f>
         <v>1</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <f>E14/$D$14</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f>F14/$D$14</f>
         <v>0</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <f>G14/$D$14</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f>H14/$D$14</f>
         <v>5</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <f>H19/E19</f>
         <v>9</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="2"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="2"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="2"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <f>D17-($E17*D$23)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f>E17-($E17*E$23)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <f>F17-($E17*F$23)</f>
         <v>1.2499999999999996</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <f>G17-($E17*G$23)</f>
         <v>0.75</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <f>H17-($E17*H$23)</f>
         <v>41.25</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="2"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
         <f>D18/$E$18</f>
         <v>0</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="44">
         <f>E18/$E$18</f>
         <v>1</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f>F18/$E$18</f>
         <v>2.25</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <f>G18/$E$18</f>
         <v>-0.25</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="45">
         <f>H18/$E$18</f>
         <v>2.25</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="2"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>2</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="50">
         <f>D19-($E19*D$23)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f>E19-($E19*E$23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <f>F19-($E19*F$23)</f>
         <v>-1.25</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <f>G19-($E19*G$23)</f>
         <v>0.25</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="51">
         <f>H19-($E19*H$23)</f>
         <v>3.75</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="2"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="2"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="3"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="J26" s="2"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="J27" s="2"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="8"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="75" t="s">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B30" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="L30" s="75" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="62"/>
+      <c r="L30" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="77"/>
-      <c r="V30" s="95" t="s">
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="62"/>
+      <c r="V30" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="97"/>
-    </row>
-    <row r="31" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="73"/>
+    </row>
+    <row r="31" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="2"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="3"/>
-      <c r="V31" s="89" t="s">
+      <c r="T31" s="2"/>
+      <c r="V31" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="91"/>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="72"/>
-      <c r="C32" s="9">
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="76"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B32" s="57"/>
+      <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="27">
-        <v>1</v>
-      </c>
-      <c r="E32" s="27">
-        <v>0</v>
-      </c>
-      <c r="F32" s="33">
+      <c r="D32" s="26">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0</v>
+      </c>
+      <c r="F32" s="31">
         <v>-1.25</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="31">
         <v>0.25</v>
       </c>
-      <c r="H32" s="27">
-        <v>0</v>
-      </c>
-      <c r="I32" s="34">
+      <c r="H32" s="26">
+        <v>0</v>
+      </c>
+      <c r="I32" s="32">
         <v>3.75</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="9">
+      <c r="J32" s="2"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="8">
         <v>2</v>
       </c>
-      <c r="N32" s="27">
-        <v>1</v>
-      </c>
-      <c r="O32" s="27">
-        <v>0</v>
-      </c>
-      <c r="P32" s="33">
+      <c r="N32" s="26">
+        <v>1</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0</v>
+      </c>
+      <c r="P32" s="31">
         <v>-1.25</v>
       </c>
-      <c r="Q32" s="33">
+      <c r="Q32" s="31">
         <v>0.25</v>
       </c>
-      <c r="R32" s="27">
-        <v>0</v>
-      </c>
-      <c r="S32" s="34">
+      <c r="R32" s="26">
+        <v>0</v>
+      </c>
+      <c r="S32" s="32">
         <v>3.75</v>
       </c>
-      <c r="T32" s="3"/>
+      <c r="T32" s="2"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="3"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>3</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="2"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>3</v>
       </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>-1</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="2">
         <v>4</v>
       </c>
-      <c r="T33" s="3"/>
+      <c r="T33" s="2"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="3"/>
-    </row>
-    <row r="34" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1"/>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <f>D32-D33</f>
         <v>0</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <f t="shared" ref="E34:I34" si="1">E32-E33</f>
         <v>0</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <f t="shared" si="1"/>
         <v>-1.25</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="16">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="2"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <f>N32-N33</f>
         <v>0</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <f t="shared" ref="O34" si="2">O32-O33</f>
         <v>0</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="15">
         <f t="shared" ref="P34" si="3">P32-P33</f>
         <v>-1.25</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="15">
         <f t="shared" ref="Q34" si="4">Q32-Q33</f>
         <v>0.25</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="5">
         <f t="shared" ref="R34" si="5">R32-R33</f>
         <v>1</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="16">
         <f t="shared" ref="S34" si="6">S32-S33</f>
         <v>-0.25</v>
       </c>
-      <c r="T34" s="3"/>
+      <c r="T34" s="2"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="3"/>
-    </row>
-    <row r="35" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="2"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="3"/>
+      <c r="T35" s="2"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="3"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>3</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <f>D34-D35</f>
         <v>0</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <f t="shared" ref="E36" si="7">E34-E35</f>
         <v>0</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="31">
         <f t="shared" ref="F36" si="8">F34-F35</f>
         <v>-1.25</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="31">
         <f t="shared" ref="G36" si="9">G34-G35</f>
         <v>0.25</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="26">
         <f t="shared" ref="H36" si="10">H34-H35</f>
         <v>-1</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="32">
         <f t="shared" ref="I36" si="11">I34-I35</f>
         <v>0.75</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="2"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O36" s="10" t="s">
+      <c r="O36" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P36" s="31" t="s">
+      <c r="P36" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="10" t="s">
+      <c r="Q36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R36" s="29" t="s">
+      <c r="R36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S36" s="11" t="s">
+      <c r="S36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T36" s="3"/>
+      <c r="T36" s="2"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="3"/>
-    </row>
-    <row r="37" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC36" s="2"/>
+    </row>
+    <row r="37" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1"/>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <f>D36*-1</f>
         <v>0</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f t="shared" ref="E37:I37" si="12">E36*-1</f>
         <v>0</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <f t="shared" si="12"/>
         <v>1.25</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <f t="shared" si="12"/>
         <v>-0.25</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="16">
         <f t="shared" si="12"/>
         <v>-0.75</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="2"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="12" t="s">
+      <c r="M37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="13">
-        <v>0</v>
-      </c>
-      <c r="O37" s="13">
-        <v>0</v>
-      </c>
-      <c r="P37" s="32">
+      <c r="N37" s="12">
+        <v>0</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0</v>
+      </c>
+      <c r="P37" s="30">
         <v>1.2499999999999996</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="12">
         <v>0.75</v>
       </c>
-      <c r="R37" s="35">
-        <v>0</v>
-      </c>
-      <c r="S37" s="14">
+      <c r="R37" s="12">
+        <v>0</v>
+      </c>
+      <c r="S37" s="13">
         <v>41.25</v>
       </c>
-      <c r="T37" s="3"/>
+      <c r="T37" s="2"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="3"/>
-    </row>
-    <row r="38" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="2"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="12">
-        <v>1</v>
-      </c>
-      <c r="N38" s="13">
-        <v>0</v>
-      </c>
-      <c r="O38" s="13">
-        <v>1</v>
-      </c>
-      <c r="P38" s="32">
+      <c r="M38" s="11">
+        <v>1</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0</v>
+      </c>
+      <c r="O38" s="12">
+        <v>1</v>
+      </c>
+      <c r="P38" s="30">
         <v>2.25</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="12">
         <v>-0.25</v>
       </c>
-      <c r="R38" s="35">
-        <v>0</v>
-      </c>
-      <c r="S38" s="14">
+      <c r="R38" s="12">
+        <v>0</v>
+      </c>
+      <c r="S38" s="13">
         <v>2.25</v>
       </c>
-      <c r="T38" s="3"/>
+      <c r="T38" s="2"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="3"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="3"/>
+      <c r="J39" s="2"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="12">
+      <c r="M39" s="11">
         <v>2</v>
       </c>
-      <c r="N39" s="13">
-        <v>1</v>
-      </c>
-      <c r="O39" s="13">
-        <v>0</v>
-      </c>
-      <c r="P39" s="32">
+      <c r="N39" s="12">
+        <v>1</v>
+      </c>
+      <c r="O39" s="12">
+        <v>0</v>
+      </c>
+      <c r="P39" s="30">
         <v>-1.25</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="12">
         <v>0.25</v>
       </c>
-      <c r="R39" s="35">
-        <v>0</v>
-      </c>
-      <c r="S39" s="14">
+      <c r="R39" s="12">
+        <v>0</v>
+      </c>
+      <c r="S39" s="13">
         <v>3.75</v>
       </c>
-      <c r="T39" s="3"/>
+      <c r="T39" s="2"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="13">
-        <v>0</v>
-      </c>
-      <c r="E40" s="13">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
         <v>1.2499999999999996</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="30">
         <v>0.75</v>
       </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
         <v>41.25</v>
       </c>
-      <c r="J40" s="3"/>
+      <c r="J40" s="2"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="61">
+      <c r="M40" s="46">
         <v>3</v>
       </c>
-      <c r="N40" s="47">
-        <v>0</v>
-      </c>
-      <c r="O40" s="47">
-        <v>0</v>
-      </c>
-      <c r="P40" s="32">
+      <c r="N40" s="39">
+        <v>0</v>
+      </c>
+      <c r="O40" s="39">
+        <v>0</v>
+      </c>
+      <c r="P40" s="30">
         <v>-1.25</v>
       </c>
-      <c r="Q40" s="32">
+      <c r="Q40" s="30">
         <v>0.25</v>
       </c>
-      <c r="R40" s="47">
-        <v>1</v>
-      </c>
-      <c r="S40" s="62">
+      <c r="R40" s="39">
+        <v>1</v>
+      </c>
+      <c r="S40" s="47">
         <v>-0.25</v>
       </c>
-      <c r="T40" s="3"/>
+      <c r="T40" s="2"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC40" s="2"/>
+    </row>
+    <row r="41" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1"/>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
-        <v>0</v>
-      </c>
-      <c r="E41" s="13">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12">
         <v>2.25</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="30">
         <v>-0.25</v>
       </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
         <v>2.25</v>
       </c>
-      <c r="J41" s="3"/>
+      <c r="J41" s="2"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="63" t="s">
+      <c r="M41" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="30">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="28">
         <f>ABS(P37/P40)</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="3"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="2"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="3"/>
-    </row>
-    <row r="42" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC41" s="2"/>
+    </row>
+    <row r="42" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1"/>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>2</v>
       </c>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
         <v>-1.25</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="30">
         <v>0.25</v>
       </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="14">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
         <v>3.75</v>
       </c>
-      <c r="J42" s="3"/>
+      <c r="J42" s="2"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="3"/>
+      <c r="T42" s="2"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="3"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC42" s="2"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
-      <c r="C43" s="61">
+      <c r="C43" s="46">
         <v>3</v>
       </c>
-      <c r="D43" s="47">
-        <v>0</v>
-      </c>
-      <c r="E43" s="47">
-        <v>0</v>
-      </c>
-      <c r="F43" s="32">
+      <c r="D43" s="39">
+        <v>0</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0</v>
+      </c>
+      <c r="F43" s="30">
         <v>1.25</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="30">
         <v>-0.25</v>
       </c>
-      <c r="H43" s="47">
-        <v>1</v>
-      </c>
-      <c r="I43" s="62">
+      <c r="H43" s="39">
+        <v>1</v>
+      </c>
+      <c r="I43" s="47">
         <v>-0.75</v>
       </c>
-      <c r="J43" s="3"/>
+      <c r="J43" s="2"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="9" t="s">
+      <c r="M43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="37" t="s">
+      <c r="N43" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="O43" s="58" t="s">
+      <c r="O43" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="P43" s="10" t="s">
+      <c r="P43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q43" s="10" t="s">
+      <c r="Q43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R43" s="29" t="s">
+      <c r="R43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S43" s="64" t="s">
+      <c r="S43" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="3"/>
+      <c r="T43" s="2"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="3"/>
-    </row>
-    <row r="44" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC43" s="2"/>
+    </row>
+    <row r="44" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="30">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="28">
         <f>ABS(G40/G43)</f>
         <v>3</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="3"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="2"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="12" t="s">
+      <c r="M44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="12">
         <f t="shared" ref="N44:S46" si="13">N37-($P37*N$47)</f>
         <v>0</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q44" s="12">
         <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R44" s="13">
+      <c r="R44" s="12">
         <f t="shared" si="13"/>
         <v>0.99999999999999967</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S44" s="13">
         <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="T44" s="3"/>
+      <c r="T44" s="2"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="3"/>
-    </row>
-    <row r="45" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC44" s="2"/>
+    </row>
+    <row r="45" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="2"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="12">
-        <v>1</v>
-      </c>
-      <c r="N45" s="13">
+      <c r="M45" s="11">
+        <v>1</v>
+      </c>
+      <c r="N45" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O45" s="59">
+      <c r="O45" s="44">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="Q45" s="12">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="R45" s="13">
+      <c r="R45" s="12">
         <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
-      <c r="S45" s="60">
+      <c r="S45" s="45">
         <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
-      <c r="T45" s="3"/>
+      <c r="T45" s="2"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="3"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC45" s="2"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="64" t="s">
+      <c r="I46" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="3"/>
+      <c r="J46" s="2"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="12">
+      <c r="M46" s="11">
         <v>2</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46" s="34">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="Q46" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R46" s="13">
+      <c r="R46" s="12">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="S46" s="39">
+      <c r="S46" s="35">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="T46" s="3"/>
+      <c r="T46" s="2"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="3"/>
-    </row>
-    <row r="47" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC46" s="2"/>
+    </row>
+    <row r="47" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <f t="shared" ref="D47:I49" si="14">D40-($G40*D$50)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="12">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="12">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="I47" s="39">
+      <c r="I47" s="35">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="J47" s="3"/>
+      <c r="J47" s="2"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="15">
+      <c r="M47" s="14">
         <v>3</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N47" s="15">
         <f t="shared" ref="N47:S47" si="15">N40/$P$40</f>
         <v>0</v>
       </c>
-      <c r="O47" s="16">
+      <c r="O47" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P47" s="15">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="16">
+      <c r="Q47" s="15">
         <f t="shared" si="15"/>
         <v>-0.2</v>
       </c>
-      <c r="R47" s="16">
+      <c r="R47" s="15">
         <f t="shared" si="15"/>
         <v>-0.8</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S47" s="16">
         <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
-      <c r="T47" s="3"/>
+      <c r="T47" s="2"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="3"/>
-    </row>
-    <row r="48" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC47" s="2"/>
+    </row>
+    <row r="48" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1"/>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-      <c r="D48" s="13">
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="34">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="12">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="12">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="I48" s="39">
+      <c r="I48" s="35">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="J48" s="3"/>
+      <c r="J48" s="2"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="3"/>
+      <c r="T48" s="2"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="3"/>
-    </row>
-    <row r="49" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC48" s="2"/>
+    </row>
+    <row r="49" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1"/>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>2</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="34">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="12">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I49" s="39">
+      <c r="I49" s="35">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="J49" s="3"/>
+      <c r="J49" s="2"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="92" t="s">
+      <c r="M49" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="93"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="3"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="2"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="3"/>
-    </row>
-    <row r="50" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC49" s="2"/>
+    </row>
+    <row r="50" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1"/>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>3</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="15">
         <f t="shared" ref="D50:I50" si="16">D43/$G$43</f>
         <v>0</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="15">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="15">
         <f t="shared" si="16"/>
         <v>-4</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="16">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="J50" s="3"/>
+      <c r="J50" s="2"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="92" t="s">
+      <c r="M50" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="93"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="3"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="8"/>
-    </row>
-    <row r="51" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="70"/>
+      <c r="T50" s="2"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="7"/>
+    </row>
+    <row r="51" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="3"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="8"/>
-    </row>
-    <row r="52" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="2"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="7"/>
+    </row>
+    <row r="52" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="87"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="8"/>
-      <c r="L53" s="75" t="s">
+      <c r="D52" s="78"/>
+      <c r="E52" s="79"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="7"/>
+      <c r="L53" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="76"/>
-      <c r="S53" s="76"/>
-      <c r="T53" s="76"/>
-      <c r="U53" s="77"/>
-      <c r="W53" s="75" t="s">
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="62"/>
+      <c r="W53" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="X53" s="76"/>
-      <c r="Y53" s="76"/>
-      <c r="Z53" s="76"/>
-      <c r="AA53" s="76"/>
-      <c r="AB53" s="76"/>
-      <c r="AC53" s="76"/>
-      <c r="AD53" s="76"/>
-      <c r="AE53" s="76"/>
-      <c r="AF53" s="77"/>
-      <c r="AH53" s="95" t="s">
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="62"/>
+      <c r="AH53" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="AI53" s="96"/>
-      <c r="AJ53" s="96"/>
-      <c r="AK53" s="96"/>
-      <c r="AL53" s="96"/>
-      <c r="AM53" s="96"/>
-      <c r="AN53" s="96"/>
-      <c r="AO53" s="96"/>
-      <c r="AP53" s="96"/>
-      <c r="AQ53" s="97"/>
-    </row>
-    <row r="54" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI53" s="72"/>
+      <c r="AJ53" s="72"/>
+      <c r="AK53" s="72"/>
+      <c r="AL53" s="72"/>
+      <c r="AM53" s="72"/>
+      <c r="AN53" s="72"/>
+      <c r="AO53" s="72"/>
+      <c r="AP53" s="72"/>
+      <c r="AQ53" s="73"/>
+    </row>
+    <row r="54" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L54" s="1"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="3"/>
+      <c r="U54" s="2"/>
       <c r="W54" s="1"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="3"/>
-      <c r="AH54" s="89" t="s">
+      <c r="AF54" s="2"/>
+      <c r="AH54" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="AI54" s="90"/>
-      <c r="AJ54" s="90"/>
-      <c r="AK54" s="90"/>
-      <c r="AL54" s="90"/>
-      <c r="AM54" s="90"/>
-      <c r="AN54" s="90"/>
-      <c r="AO54" s="90"/>
-      <c r="AP54" s="90"/>
-      <c r="AQ54" s="91"/>
-    </row>
-    <row r="55" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="L55" s="72"/>
-      <c r="M55" s="41">
-        <v>1</v>
-      </c>
-      <c r="N55" s="42">
-        <v>0</v>
-      </c>
-      <c r="O55" s="42">
-        <v>1</v>
-      </c>
-      <c r="P55" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="42">
+      <c r="AI54" s="75"/>
+      <c r="AJ54" s="75"/>
+      <c r="AK54" s="75"/>
+      <c r="AL54" s="75"/>
+      <c r="AM54" s="75"/>
+      <c r="AN54" s="75"/>
+      <c r="AO54" s="75"/>
+      <c r="AP54" s="75"/>
+      <c r="AQ54" s="76"/>
+    </row>
+    <row r="55" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="L55" s="57"/>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+      <c r="N55" s="31">
+        <v>0</v>
+      </c>
+      <c r="O55" s="31">
+        <v>1</v>
+      </c>
+      <c r="P55" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="31">
         <v>0.2</v>
       </c>
-      <c r="R55" s="42">
+      <c r="R55" s="31">
         <v>1.8</v>
       </c>
-      <c r="S55" s="42">
-        <v>0</v>
-      </c>
-      <c r="T55" s="43">
+      <c r="S55" s="31">
+        <v>0</v>
+      </c>
+      <c r="T55" s="32">
         <v>1.8</v>
       </c>
-      <c r="U55" s="3"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="41">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="42">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="42">
+      <c r="U55" s="2"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="31">
         <v>0.2</v>
       </c>
-      <c r="AC55" s="42">
+      <c r="AC55" s="31">
         <v>1.8</v>
       </c>
-      <c r="AD55" s="42">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="43">
+      <c r="AD55" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="32">
         <v>1.8</v>
       </c>
-      <c r="AF55" s="3"/>
+      <c r="AF55" s="2"/>
       <c r="AH55" s="1"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55" s="2"/>
-      <c r="AN55" s="2"/>
-      <c r="AO55" s="2"/>
-      <c r="AP55" s="2"/>
-      <c r="AQ55" s="3"/>
-    </row>
-    <row r="56" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AQ55" s="2"/>
+    </row>
+    <row r="56" spans="2:43" x14ac:dyDescent="0.35">
       <c r="L56" s="1"/>
-      <c r="M56" s="12">
+      <c r="M56" s="11">
         <v>4</v>
       </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56" s="2">
-        <v>1</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
         <v>-1</v>
       </c>
-      <c r="T56" s="3">
+      <c r="T56" s="2">
         <v>2</v>
       </c>
-      <c r="U56" s="3"/>
+      <c r="U56" s="2"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="12">
+      <c r="X56" s="11">
         <v>4</v>
       </c>
-      <c r="Y56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF56" s="3"/>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="2"/>
       <c r="AH56" s="1"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56" s="2"/>
-      <c r="AN56" s="2"/>
-      <c r="AO56" s="2"/>
-      <c r="AP56" s="2"/>
-      <c r="AQ56" s="3"/>
-    </row>
-    <row r="57" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ56" s="2"/>
+    </row>
+    <row r="57" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L57" s="1"/>
-      <c r="M57" s="28" t="s">
+      <c r="M57" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N57" s="15">
         <f>N55-N56</f>
         <v>0</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="15">
         <f t="shared" ref="O57:T57" si="17">O55-O56</f>
         <v>0</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57" s="15">
         <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
-      <c r="R57" s="16">
+      <c r="R57" s="15">
         <f t="shared" si="17"/>
         <v>1.8</v>
       </c>
-      <c r="S57" s="16">
+      <c r="S57" s="15">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="T57" s="17">
+      <c r="T57" s="16">
         <f t="shared" si="17"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="U57" s="3"/>
+      <c r="U57" s="2"/>
       <c r="W57" s="1"/>
-      <c r="X57" s="28" t="s">
+      <c r="X57" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y57" s="16">
+      <c r="Y57" s="15">
         <f>Y55-Y56</f>
         <v>0</v>
       </c>
-      <c r="Z57" s="16">
+      <c r="Z57" s="15">
         <f t="shared" ref="Z57:AE57" si="18">Z55-Z56</f>
         <v>0</v>
       </c>
-      <c r="AA57" s="16">
+      <c r="AA57" s="15">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB57" s="16">
+      <c r="AB57" s="15">
         <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
-      <c r="AC57" s="16">
+      <c r="AC57" s="15">
         <f t="shared" si="18"/>
         <v>1.8</v>
       </c>
-      <c r="AD57" s="16">
+      <c r="AD57" s="15">
         <f t="shared" si="18"/>
         <v>-1</v>
       </c>
-      <c r="AE57" s="17">
+      <c r="AE57" s="16">
         <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
-      <c r="AF57" s="3"/>
+      <c r="AF57" s="2"/>
       <c r="AH57" s="1"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
-      <c r="AM57" s="2"/>
-      <c r="AN57" s="2"/>
-      <c r="AO57" s="2"/>
-      <c r="AP57" s="2"/>
-      <c r="AQ57" s="3"/>
-    </row>
-    <row r="58" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ57" s="2"/>
+    </row>
+    <row r="58" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L58" s="1"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="3"/>
+      <c r="U58" s="2"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="3"/>
+      <c r="AF58" s="2"/>
       <c r="AH58" s="1"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" s="2"/>
-      <c r="AN58" s="2"/>
-      <c r="AO58" s="2"/>
-      <c r="AP58" s="2"/>
-      <c r="AQ58" s="3"/>
-    </row>
-    <row r="59" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AQ58" s="2"/>
+    </row>
+    <row r="59" spans="2:43" x14ac:dyDescent="0.35">
       <c r="L59" s="1"/>
-      <c r="M59" s="9" t="s">
+      <c r="M59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="10" t="s">
+      <c r="N59" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O59" s="10" t="s">
+      <c r="O59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P59" s="10" t="s">
+      <c r="P59" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q59" s="10" t="s">
+      <c r="Q59" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R59" s="29" t="s">
+      <c r="R59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S59" s="10" t="s">
+      <c r="S59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T59" s="11" t="s">
+      <c r="T59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U59" s="3"/>
+      <c r="U59" s="2"/>
       <c r="W59" s="1"/>
-      <c r="X59" s="9">
+      <c r="X59" s="8">
         <v>4</v>
       </c>
-      <c r="Y59" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="33">
+      <c r="Y59" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="31">
         <v>0.2</v>
       </c>
-      <c r="AC59" s="33">
+      <c r="AC59" s="31">
         <v>1.8</v>
       </c>
-      <c r="AD59" s="33">
+      <c r="AD59" s="31">
         <v>-1</v>
       </c>
-      <c r="AE59" s="34">
+      <c r="AE59" s="32">
         <v>0.8</v>
       </c>
-      <c r="AF59" s="3"/>
+      <c r="AF59" s="2"/>
       <c r="AH59" s="1"/>
-      <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
-      <c r="AM59" s="2"/>
-      <c r="AN59" s="2"/>
-      <c r="AO59" s="2"/>
-      <c r="AP59" s="2"/>
-      <c r="AQ59" s="3"/>
-    </row>
-    <row r="60" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ59" s="2"/>
+    </row>
+    <row r="60" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L60" s="1"/>
-      <c r="M60" s="12" t="s">
+      <c r="M60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>0.99999999999999989</v>
       </c>
-      <c r="R60" s="2">
+      <c r="R60">
         <v>0.99999999999999967</v>
       </c>
-      <c r="S60" s="2">
-        <v>0</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
         <v>41</v>
       </c>
-      <c r="U60" s="3"/>
+      <c r="U60" s="2"/>
       <c r="W60" s="1"/>
-      <c r="X60" s="28" t="s">
+      <c r="X60" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y60" s="16">
+      <c r="Y60" s="15">
         <f>Y59*-1</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="16">
+      <c r="Z60" s="15">
         <f t="shared" ref="Z60:AE60" si="19">Z59*-1</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="16">
+      <c r="AA60" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AB60" s="16">
+      <c r="AB60" s="15">
         <f t="shared" si="19"/>
         <v>-0.2</v>
       </c>
-      <c r="AC60" s="16">
+      <c r="AC60" s="15">
         <f t="shared" si="19"/>
         <v>-1.8</v>
       </c>
-      <c r="AD60" s="16">
+      <c r="AD60" s="15">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AE60" s="17">
+      <c r="AE60" s="16">
         <f t="shared" si="19"/>
         <v>-0.8</v>
       </c>
-      <c r="AF60" s="3"/>
+      <c r="AF60" s="2"/>
       <c r="AH60" s="1"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60" s="2"/>
-      <c r="AN60" s="2"/>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="2"/>
-      <c r="AQ60" s="3"/>
-    </row>
-    <row r="61" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ60" s="2"/>
+    </row>
+    <row r="61" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L61" s="1"/>
-      <c r="M61" s="12">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
-        <v>1</v>
-      </c>
-      <c r="P61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="13">
+      <c r="M61" s="11">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="12">
         <v>0.2</v>
       </c>
-      <c r="R61" s="13">
+      <c r="R61" s="12">
         <v>1.8</v>
       </c>
-      <c r="S61" s="2">
-        <v>0</v>
-      </c>
-      <c r="T61" s="14">
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" s="13">
         <v>1.8</v>
       </c>
-      <c r="U61" s="3"/>
+      <c r="U61" s="2"/>
       <c r="W61" s="1"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="3"/>
+      <c r="AF61" s="2"/>
       <c r="AH61" s="1"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61" s="2"/>
-      <c r="AN61" s="2"/>
-      <c r="AO61" s="2"/>
-      <c r="AP61" s="2"/>
-      <c r="AQ61" s="3"/>
-    </row>
-    <row r="62" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="2"/>
+    </row>
+    <row r="62" spans="2:43" x14ac:dyDescent="0.35">
       <c r="L62" s="1"/>
-      <c r="M62" s="12">
+      <c r="M62" s="11">
         <v>2</v>
       </c>
-      <c r="N62" s="2">
-        <v>1</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2">
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>-1</v>
       </c>
-      <c r="S62" s="2">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2">
         <v>4</v>
       </c>
-      <c r="U62" s="3"/>
+      <c r="U62" s="2"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="9" t="s">
+      <c r="X62" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Y62" s="10" t="s">
+      <c r="Y62" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z62" s="10" t="s">
+      <c r="Z62" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA62" s="10" t="s">
+      <c r="AA62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AB62" s="10" t="s">
+      <c r="AB62" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AC62" s="31" t="s">
+      <c r="AC62" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AD62" s="10" t="s">
+      <c r="AD62" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AE62" s="11" t="s">
+      <c r="AE62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF62" s="3"/>
+      <c r="AF62" s="2"/>
       <c r="AH62" s="1"/>
-      <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
-      <c r="AK62" s="2"/>
-      <c r="AL62" s="2"/>
-      <c r="AM62" s="2"/>
-      <c r="AN62" s="2"/>
-      <c r="AO62" s="2"/>
-      <c r="AP62" s="2"/>
-      <c r="AQ62" s="3"/>
-    </row>
-    <row r="63" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="2"/>
+    </row>
+    <row r="63" spans="2:43" x14ac:dyDescent="0.35">
       <c r="L63" s="1"/>
-      <c r="M63" s="12">
+      <c r="M63" s="11">
         <v>3</v>
       </c>
-      <c r="N63" s="2">
-        <v>0</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0</v>
-      </c>
-      <c r="P63" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="13">
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="12">
         <v>-0.2</v>
       </c>
-      <c r="R63" s="13">
+      <c r="R63" s="12">
         <v>-0.8</v>
       </c>
-      <c r="S63" s="2">
-        <v>0</v>
-      </c>
-      <c r="T63" s="14">
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" s="13">
         <v>0.2</v>
       </c>
-      <c r="U63" s="3"/>
+      <c r="U63" s="2"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="12" t="s">
+      <c r="X63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="2">
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
         <v>0.99999999999999989</v>
       </c>
-      <c r="AC63" s="47">
+      <c r="AC63" s="39">
         <v>0.99999999999999967</v>
       </c>
-      <c r="AD63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="3">
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="2">
         <v>41</v>
       </c>
-      <c r="AF63" s="3"/>
+      <c r="AF63" s="2"/>
       <c r="AH63" s="1"/>
-      <c r="AI63" s="2"/>
-      <c r="AJ63" s="2"/>
-      <c r="AK63" s="2"/>
-      <c r="AL63" s="2"/>
-      <c r="AM63" s="2"/>
-      <c r="AN63" s="2"/>
-      <c r="AO63" s="2"/>
-      <c r="AP63" s="2"/>
-      <c r="AQ63" s="3"/>
-    </row>
-    <row r="64" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ63" s="2"/>
+    </row>
+    <row r="64" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L64" s="1"/>
-      <c r="M64" s="44">
+      <c r="M64" s="36">
         <v>4</v>
       </c>
-      <c r="N64" s="45">
-        <v>0</v>
-      </c>
-      <c r="O64" s="45">
-        <v>0</v>
-      </c>
-      <c r="P64" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="45">
+      <c r="N64" s="37">
+        <v>0</v>
+      </c>
+      <c r="O64" s="37">
+        <v>0</v>
+      </c>
+      <c r="P64" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="37">
         <v>0.2</v>
       </c>
-      <c r="R64" s="45">
+      <c r="R64" s="37">
         <v>1.8</v>
       </c>
-      <c r="S64" s="45">
-        <v>1</v>
-      </c>
-      <c r="T64" s="46">
+      <c r="S64" s="37">
+        <v>1</v>
+      </c>
+      <c r="T64" s="38">
         <v>-0.19999999999999996</v>
       </c>
-      <c r="U64" s="3"/>
+      <c r="U64" s="2"/>
       <c r="W64" s="1"/>
-      <c r="X64" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="13">
+      <c r="X64" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="12">
         <v>0.2</v>
       </c>
-      <c r="AC64" s="32">
+      <c r="AC64" s="30">
         <v>1.8</v>
       </c>
-      <c r="AD64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="14">
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="13">
         <v>1.8</v>
       </c>
-      <c r="AF64" s="3"/>
+      <c r="AF64" s="2"/>
       <c r="AH64" s="1"/>
-      <c r="AI64" s="2"/>
-      <c r="AJ64" s="2"/>
-      <c r="AK64" s="2"/>
-      <c r="AL64" s="2"/>
-      <c r="AM64" s="2"/>
-      <c r="AN64" s="2"/>
-      <c r="AO64" s="2"/>
-      <c r="AP64" s="2"/>
-      <c r="AQ64" s="3"/>
-    </row>
-    <row r="65" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ64" s="2"/>
+    </row>
+    <row r="65" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L65" s="1"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="3"/>
+      <c r="U65" s="2"/>
       <c r="W65" s="1"/>
-      <c r="X65" s="12">
+      <c r="X65" s="11">
         <v>2</v>
       </c>
-      <c r="Y65" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="47">
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="39">
         <v>-1</v>
       </c>
-      <c r="AD65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="3">
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="2">
         <v>4</v>
       </c>
-      <c r="AF65" s="3"/>
+      <c r="AF65" s="2"/>
       <c r="AH65" s="1"/>
-      <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
-      <c r="AM65" s="2"/>
-      <c r="AN65" s="2"/>
-      <c r="AO65" s="2"/>
-      <c r="AP65" s="2"/>
-      <c r="AQ65" s="3"/>
-    </row>
-    <row r="66" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ65" s="2"/>
+    </row>
+    <row r="66" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L66" s="1"/>
-      <c r="M66" s="83" t="s">
+      <c r="M66" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="84"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="3"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="82"/>
+      <c r="U66" s="2"/>
       <c r="W66" s="1"/>
-      <c r="X66" s="12">
+      <c r="X66" s="11">
         <v>3</v>
       </c>
-      <c r="Y66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB66" s="13">
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="12">
         <v>-0.2</v>
       </c>
-      <c r="AC66" s="32">
+      <c r="AC66" s="30">
         <v>-0.8</v>
       </c>
-      <c r="AD66" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="14">
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="13">
         <v>0.2</v>
       </c>
-      <c r="AF66" s="3"/>
+      <c r="AF66" s="2"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="2"/>
-      <c r="AO66" s="2"/>
-      <c r="AP66" s="2"/>
-      <c r="AQ66" s="3"/>
-    </row>
-    <row r="67" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L67" s="5"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="8"/>
+      <c r="AQ66" s="2"/>
+    </row>
+    <row r="67" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L67" s="4"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="7"/>
       <c r="W67" s="1"/>
-      <c r="X67" s="61">
+      <c r="X67" s="46">
         <v>4</v>
       </c>
-      <c r="Y67" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="32">
+      <c r="Y67" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="30">
         <v>-0.2</v>
       </c>
-      <c r="AC67" s="32">
+      <c r="AC67" s="30">
         <v>-1.8</v>
       </c>
-      <c r="AD67" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE67" s="62">
+      <c r="AD67" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="47">
         <v>-0.8</v>
       </c>
-      <c r="AF67" s="3"/>
+      <c r="AF67" s="2"/>
       <c r="AH67" s="1"/>
-      <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
-      <c r="AM67" s="2"/>
-      <c r="AN67" s="2"/>
-      <c r="AO67" s="2"/>
-      <c r="AP67" s="2"/>
-      <c r="AQ67" s="3"/>
-    </row>
-    <row r="68" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ67" s="2"/>
+    </row>
+    <row r="68" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W68" s="1"/>
-      <c r="X68" s="63" t="s">
+      <c r="X68" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
-      <c r="AA68" s="6"/>
-      <c r="AB68" s="6">
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5">
         <f>ABS(AB63/AB67)</f>
         <v>4.9999999999999991</v>
       </c>
-      <c r="AC68" s="67">
+      <c r="AC68" s="52">
         <f>ABS(AC63/AC67)</f>
         <v>0.55555555555555536</v>
       </c>
-      <c r="AD68" s="6"/>
-      <c r="AE68" s="8"/>
-      <c r="AF68" s="3"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="2"/>
       <c r="AH68" s="1"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
-      <c r="AM68" s="2"/>
-      <c r="AN68" s="2"/>
-      <c r="AO68" s="2"/>
-      <c r="AP68" s="2"/>
-      <c r="AQ68" s="3"/>
-    </row>
-    <row r="69" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ68" s="2"/>
+    </row>
+    <row r="69" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W69" s="1"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="3"/>
+      <c r="AF69" s="2"/>
       <c r="AH69" s="1"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
-      <c r="AK69" s="2"/>
-      <c r="AL69" s="2"/>
-      <c r="AM69" s="2"/>
-      <c r="AN69" s="2"/>
-      <c r="AO69" s="2"/>
-      <c r="AP69" s="2"/>
-      <c r="AQ69" s="3"/>
-    </row>
-    <row r="70" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="AQ69" s="2"/>
+    </row>
+    <row r="70" spans="12:43" x14ac:dyDescent="0.35">
       <c r="W70" s="1"/>
-      <c r="X70" s="9" t="s">
+      <c r="X70" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y70" s="58" t="s">
+      <c r="Y70" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="Z70" s="37" t="s">
+      <c r="Z70" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AA70" s="10" t="s">
+      <c r="AA70" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AB70" s="10" t="s">
+      <c r="AB70" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AC70" s="29" t="s">
+      <c r="AC70" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AD70" s="10" t="s">
+      <c r="AD70" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AE70" s="64" t="s">
+      <c r="AE70" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AF70" s="3"/>
+      <c r="AF70" s="2"/>
       <c r="AH70" s="1"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="2"/>
-      <c r="AK70" s="2"/>
-      <c r="AL70" s="2"/>
-      <c r="AM70" s="2"/>
-      <c r="AN70" s="2"/>
-      <c r="AO70" s="2"/>
-      <c r="AP70" s="2"/>
-      <c r="AQ70" s="3"/>
-    </row>
-    <row r="71" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="AQ70" s="2"/>
+    </row>
+    <row r="71" spans="12:43" x14ac:dyDescent="0.35">
       <c r="W71" s="1"/>
-      <c r="X71" s="12" t="s">
+      <c r="X71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y71" s="13">
+      <c r="Y71" s="12">
         <f t="shared" ref="Y71:AE74" si="20">Y63-($AC63*Y$75)</f>
         <v>0</v>
       </c>
-      <c r="Z71" s="13">
+      <c r="Z71" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA71" s="13">
+      <c r="AA71" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AB71" s="13">
+      <c r="AB71" s="12">
         <f t="shared" si="20"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="AC71" s="13">
+      <c r="AC71" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD71" s="13">
+      <c r="AD71" s="12">
         <f t="shared" si="20"/>
         <v>0.55555555555555536</v>
       </c>
-      <c r="AE71" s="14">
+      <c r="AE71" s="13">
         <f t="shared" si="20"/>
         <v>40.555555555555557</v>
       </c>
-      <c r="AF71" s="3"/>
+      <c r="AF71" s="2"/>
       <c r="AH71" s="1"/>
-      <c r="AI71" s="2"/>
-      <c r="AJ71" s="2"/>
-      <c r="AK71" s="2"/>
-      <c r="AL71" s="2"/>
-      <c r="AM71" s="2"/>
-      <c r="AN71" s="2"/>
-      <c r="AO71" s="2"/>
-      <c r="AP71" s="2"/>
-      <c r="AQ71" s="3"/>
-    </row>
-    <row r="72" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="AQ71" s="2"/>
+    </row>
+    <row r="72" spans="12:43" x14ac:dyDescent="0.35">
       <c r="W72" s="1"/>
-      <c r="X72" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y72" s="13">
+      <c r="X72" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z72" s="38">
+      <c r="Z72" s="34">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AA72" s="13">
+      <c r="AA72" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AB72" s="13">
+      <c r="AB72" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC72" s="13">
+      <c r="AC72" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD72" s="13">
+      <c r="AD72" s="12">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AE72" s="39">
+      <c r="AE72" s="35">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AF72" s="3"/>
+      <c r="AF72" s="2"/>
       <c r="AH72" s="1"/>
-      <c r="AI72" s="2"/>
-      <c r="AJ72" s="2"/>
-      <c r="AK72" s="2"/>
-      <c r="AL72" s="2"/>
-      <c r="AM72" s="2"/>
-      <c r="AN72" s="2"/>
-      <c r="AO72" s="2"/>
-      <c r="AP72" s="2"/>
-      <c r="AQ72" s="3"/>
-    </row>
-    <row r="73" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="AQ72" s="2"/>
+    </row>
+    <row r="73" spans="12:43" x14ac:dyDescent="0.35">
       <c r="W73" s="1"/>
-      <c r="X73" s="12">
+      <c r="X73" s="11">
         <v>2</v>
       </c>
-      <c r="Y73" s="59">
+      <c r="Y73" s="44">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Z73" s="13">
+      <c r="Z73" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA73" s="13">
+      <c r="AA73" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AB73" s="13">
+      <c r="AB73" s="12">
         <f t="shared" si="20"/>
         <v>0.11111111111111112</v>
       </c>
-      <c r="AC73" s="13">
+      <c r="AC73" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD73" s="13">
+      <c r="AD73" s="12">
         <f t="shared" si="20"/>
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AE73" s="60">
+      <c r="AE73" s="45">
         <f t="shared" si="20"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="AF73" s="3"/>
+      <c r="AF73" s="2"/>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="2"/>
-      <c r="AJ73" s="2"/>
-      <c r="AK73" s="2"/>
-      <c r="AL73" s="2"/>
-      <c r="AM73" s="2"/>
-      <c r="AN73" s="2"/>
-      <c r="AO73" s="2"/>
-      <c r="AP73" s="2"/>
-      <c r="AQ73" s="3"/>
-    </row>
-    <row r="74" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="AQ73" s="2"/>
+    </row>
+    <row r="74" spans="12:43" x14ac:dyDescent="0.35">
       <c r="W74" s="1"/>
-      <c r="X74" s="12">
+      <c r="X74" s="11">
         <v>3</v>
       </c>
-      <c r="Y74" s="13">
+      <c r="Y74" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z74" s="13">
+      <c r="Z74" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA74" s="13">
+      <c r="AA74" s="12">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AB74" s="13">
+      <c r="AB74" s="12">
         <f t="shared" si="20"/>
         <v>-0.1111111111111111</v>
       </c>
-      <c r="AC74" s="13">
+      <c r="AC74" s="12">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD74" s="13">
+      <c r="AD74" s="12">
         <f t="shared" si="20"/>
         <v>-0.44444444444444448</v>
       </c>
-      <c r="AE74" s="14">
+      <c r="AE74" s="13">
         <f t="shared" si="20"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AF74" s="3"/>
+      <c r="AF74" s="2"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="2"/>
-      <c r="AJ74" s="2"/>
-      <c r="AK74" s="2"/>
-      <c r="AL74" s="2"/>
-      <c r="AM74" s="2"/>
-      <c r="AN74" s="2"/>
-      <c r="AO74" s="2"/>
-      <c r="AP74" s="2"/>
-      <c r="AQ74" s="3"/>
-    </row>
-    <row r="75" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ74" s="2"/>
+    </row>
+    <row r="75" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W75" s="1"/>
-      <c r="X75" s="48">
+      <c r="X75" s="14">
         <v>4</v>
       </c>
-      <c r="Y75" s="16">
+      <c r="Y75" s="15">
         <f t="shared" ref="Y75:AE75" si="21">Y67/$AC$67</f>
         <v>0</v>
       </c>
-      <c r="Z75" s="16">
+      <c r="Z75" s="15">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AA75" s="16">
+      <c r="AA75" s="15">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AB75" s="16">
+      <c r="AB75" s="15">
         <f t="shared" si="21"/>
         <v>0.11111111111111112</v>
       </c>
-      <c r="AC75" s="16">
+      <c r="AC75" s="15">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AD75" s="16">
+      <c r="AD75" s="15">
         <f t="shared" si="21"/>
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AE75" s="17">
+      <c r="AE75" s="16">
         <f t="shared" si="21"/>
         <v>0.44444444444444448</v>
       </c>
-      <c r="AF75" s="3"/>
+      <c r="AF75" s="2"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
-      <c r="AL75" s="2"/>
-      <c r="AM75" s="2"/>
-      <c r="AN75" s="2"/>
-      <c r="AO75" s="2"/>
-      <c r="AP75" s="2"/>
-      <c r="AQ75" s="3"/>
-    </row>
-    <row r="76" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ75" s="2"/>
+    </row>
+    <row r="76" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W76" s="1"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="3"/>
+      <c r="AF76" s="2"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="2"/>
-      <c r="AJ76" s="2"/>
-      <c r="AK76" s="2"/>
-      <c r="AL76" s="2"/>
-      <c r="AM76" s="2"/>
-      <c r="AN76" s="2"/>
-      <c r="AO76" s="2"/>
-      <c r="AP76" s="2"/>
-      <c r="AQ76" s="3"/>
-    </row>
-    <row r="77" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ76" s="2"/>
+    </row>
+    <row r="77" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W77" s="1"/>
-      <c r="X77" s="92" t="s">
+      <c r="X77" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Y77" s="93"/>
-      <c r="Z77" s="93"/>
-      <c r="AA77" s="93"/>
-      <c r="AB77" s="93"/>
-      <c r="AC77" s="93"/>
-      <c r="AD77" s="93"/>
-      <c r="AE77" s="94"/>
-      <c r="AF77" s="3"/>
+      <c r="Y77" s="69"/>
+      <c r="Z77" s="69"/>
+      <c r="AA77" s="69"/>
+      <c r="AB77" s="69"/>
+      <c r="AC77" s="69"/>
+      <c r="AD77" s="69"/>
+      <c r="AE77" s="70"/>
+      <c r="AF77" s="2"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="2"/>
-      <c r="AJ77" s="2"/>
-      <c r="AK77" s="2"/>
-      <c r="AL77" s="2"/>
-      <c r="AM77" s="2"/>
-      <c r="AN77" s="2"/>
-      <c r="AO77" s="2"/>
-      <c r="AP77" s="2"/>
-      <c r="AQ77" s="3"/>
-    </row>
-    <row r="78" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ77" s="2"/>
+    </row>
+    <row r="78" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W78" s="1"/>
-      <c r="X78" s="92" t="s">
+      <c r="X78" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="Y78" s="93"/>
-      <c r="Z78" s="93"/>
-      <c r="AA78" s="93"/>
-      <c r="AB78" s="93"/>
-      <c r="AC78" s="93"/>
-      <c r="AD78" s="93"/>
-      <c r="AE78" s="94"/>
-      <c r="AF78" s="3"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="6"/>
-      <c r="AJ78" s="6"/>
-      <c r="AK78" s="6"/>
-      <c r="AL78" s="6"/>
-      <c r="AM78" s="6"/>
-      <c r="AN78" s="6"/>
-      <c r="AO78" s="6"/>
-      <c r="AP78" s="6"/>
-      <c r="AQ78" s="8"/>
-    </row>
-    <row r="79" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W79" s="5"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="8"/>
-    </row>
-    <row r="80" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="14:45" x14ac:dyDescent="0.25">
-      <c r="N81" s="95" t="s">
+      <c r="Y78" s="69"/>
+      <c r="Z78" s="69"/>
+      <c r="AA78" s="69"/>
+      <c r="AB78" s="69"/>
+      <c r="AC78" s="69"/>
+      <c r="AD78" s="69"/>
+      <c r="AE78" s="70"/>
+      <c r="AF78" s="2"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="5"/>
+      <c r="AQ78" s="7"/>
+    </row>
+    <row r="79" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W79" s="4"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="7"/>
+    </row>
+    <row r="80" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="14:45" x14ac:dyDescent="0.35">
+      <c r="N81" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="96"/>
-      <c r="T81" s="96"/>
-      <c r="U81" s="97"/>
-      <c r="W81" s="75" t="s">
+      <c r="O81" s="72"/>
+      <c r="P81" s="72"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="72"/>
+      <c r="S81" s="72"/>
+      <c r="T81" s="72"/>
+      <c r="U81" s="73"/>
+      <c r="W81" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="X81" s="76"/>
-      <c r="Y81" s="76"/>
-      <c r="Z81" s="76"/>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="76"/>
-      <c r="AC81" s="76"/>
-      <c r="AD81" s="76"/>
-      <c r="AE81" s="76"/>
-      <c r="AF81" s="76"/>
-      <c r="AG81" s="77"/>
-      <c r="AI81" s="75" t="s">
+      <c r="X81" s="61"/>
+      <c r="Y81" s="61"/>
+      <c r="Z81" s="61"/>
+      <c r="AA81" s="61"/>
+      <c r="AB81" s="61"/>
+      <c r="AC81" s="61"/>
+      <c r="AD81" s="61"/>
+      <c r="AE81" s="61"/>
+      <c r="AF81" s="61"/>
+      <c r="AG81" s="62"/>
+      <c r="AI81" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AJ81" s="76"/>
-      <c r="AK81" s="76"/>
-      <c r="AL81" s="76"/>
-      <c r="AM81" s="76"/>
-      <c r="AN81" s="76"/>
-      <c r="AO81" s="76"/>
-      <c r="AP81" s="76"/>
-      <c r="AQ81" s="76"/>
-      <c r="AR81" s="76"/>
-      <c r="AS81" s="77"/>
-    </row>
-    <row r="82" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N82" s="89" t="s">
+      <c r="AJ81" s="61"/>
+      <c r="AK81" s="61"/>
+      <c r="AL81" s="61"/>
+      <c r="AM81" s="61"/>
+      <c r="AN81" s="61"/>
+      <c r="AO81" s="61"/>
+      <c r="AP81" s="61"/>
+      <c r="AQ81" s="61"/>
+      <c r="AR81" s="61"/>
+      <c r="AS81" s="62"/>
+    </row>
+    <row r="82" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N82" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="O82" s="90"/>
-      <c r="P82" s="90"/>
-      <c r="Q82" s="90"/>
-      <c r="R82" s="90"/>
-      <c r="S82" s="90"/>
-      <c r="T82" s="90"/>
-      <c r="U82" s="91"/>
+      <c r="O82" s="75"/>
+      <c r="P82" s="75"/>
+      <c r="Q82" s="75"/>
+      <c r="R82" s="75"/>
+      <c r="S82" s="75"/>
+      <c r="T82" s="75"/>
+      <c r="U82" s="76"/>
       <c r="W82" s="1"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="3"/>
+      <c r="AG82" s="2"/>
       <c r="AI82" s="1"/>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
-      <c r="AM82" s="2"/>
-      <c r="AN82" s="2"/>
-      <c r="AO82" s="2"/>
-      <c r="AP82" s="2"/>
-      <c r="AQ82" s="2"/>
-      <c r="AR82" s="2"/>
-      <c r="AS82" s="3"/>
-    </row>
-    <row r="83" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS82" s="2"/>
+    </row>
+    <row r="83" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N83" s="1"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="3"/>
-      <c r="W83" s="72"/>
-      <c r="X83" s="41">
+      <c r="U83" s="2"/>
+      <c r="W83" s="57"/>
+      <c r="X83" s="8">
         <v>2</v>
       </c>
-      <c r="Y83" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z83" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="42">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="42">
+      <c r="Y83" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="31">
         <v>0.11111111111111112</v>
       </c>
-      <c r="AC83" s="42">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="42">
+      <c r="AC83" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="31">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AE83" s="42">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="43">
+      <c r="AE83" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="32">
         <v>4.4444444444444446</v>
       </c>
-      <c r="AG83" s="3"/>
-      <c r="AI83" s="72"/>
-      <c r="AJ83" s="41">
+      <c r="AG83" s="2"/>
+      <c r="AI83" s="57"/>
+      <c r="AJ83" s="8">
         <v>2</v>
       </c>
-      <c r="AK83" s="42">
-        <v>1</v>
-      </c>
-      <c r="AL83" s="42">
-        <v>0</v>
-      </c>
-      <c r="AM83" s="42">
-        <v>0</v>
-      </c>
-      <c r="AN83" s="42">
+      <c r="AK83" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL83" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="31">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="31">
         <v>0.11111111111111112</v>
       </c>
-      <c r="AO83" s="42">
-        <v>0</v>
-      </c>
-      <c r="AP83" s="42">
+      <c r="AO83" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="31">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AQ83" s="42">
-        <v>0</v>
-      </c>
-      <c r="AR83" s="43">
+      <c r="AQ83" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="32">
         <v>4.4444444444444446</v>
       </c>
-      <c r="AS83" s="3"/>
-    </row>
-    <row r="84" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS83" s="2"/>
+    </row>
+    <row r="84" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N84" s="1"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="3"/>
+      <c r="U84" s="2"/>
       <c r="W84" s="1"/>
-      <c r="X84" s="12">
+      <c r="X84" s="11">
         <v>5</v>
       </c>
-      <c r="Y84" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE84" s="2">
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
         <v>-1</v>
       </c>
-      <c r="AF84" s="3">
+      <c r="AF84" s="2">
         <v>5</v>
       </c>
-      <c r="AG84" s="3"/>
+      <c r="AG84" s="2"/>
       <c r="AI84" s="1"/>
-      <c r="AJ84" s="12">
+      <c r="AJ84" s="11">
         <v>5</v>
       </c>
-      <c r="AK84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR84" s="3">
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84" s="2">
         <v>4</v>
       </c>
-      <c r="AS84" s="3"/>
-    </row>
-    <row r="85" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS84" s="2"/>
+    </row>
+    <row r="85" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N85" s="1"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="3"/>
+      <c r="U85" s="2"/>
       <c r="W85" s="1"/>
-      <c r="X85" s="28" t="s">
+      <c r="X85" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Y85" s="16">
+      <c r="Y85" s="15">
         <f>Y83-Y84</f>
         <v>0</v>
       </c>
-      <c r="Z85" s="16">
+      <c r="Z85" s="15">
         <f t="shared" ref="Z85:AF85" si="22">Z83-Z84</f>
         <v>0</v>
       </c>
-      <c r="AA85" s="16">
+      <c r="AA85" s="15">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AB85" s="16">
+      <c r="AB85" s="15">
         <f t="shared" si="22"/>
         <v>0.11111111111111112</v>
       </c>
-      <c r="AC85" s="16">
+      <c r="AC85" s="15">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AD85" s="16">
+      <c r="AD85" s="15">
         <f t="shared" si="22"/>
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AE85" s="16">
+      <c r="AE85" s="15">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AF85" s="17">
+      <c r="AF85" s="16">
         <f t="shared" si="22"/>
         <v>-0.55555555555555536</v>
       </c>
-      <c r="AG85" s="3"/>
+      <c r="AG85" s="2"/>
       <c r="AI85" s="1"/>
-      <c r="AJ85" s="28" t="s">
+      <c r="AJ85" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AK85" s="16">
+      <c r="AK85" s="15">
         <f>AK83-AK84</f>
         <v>0</v>
       </c>
-      <c r="AL85" s="16">
+      <c r="AL85" s="15">
         <f t="shared" ref="AL85" si="23">AL83-AL84</f>
         <v>0</v>
       </c>
-      <c r="AM85" s="16">
+      <c r="AM85" s="15">
         <f t="shared" ref="AM85" si="24">AM83-AM84</f>
         <v>0</v>
       </c>
-      <c r="AN85" s="16">
+      <c r="AN85" s="15">
         <f t="shared" ref="AN85" si="25">AN83-AN84</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="AO85" s="16">
+      <c r="AO85" s="15">
         <f t="shared" ref="AO85" si="26">AO83-AO84</f>
         <v>0</v>
       </c>
-      <c r="AP85" s="16">
+      <c r="AP85" s="15">
         <f t="shared" ref="AP85" si="27">AP83-AP84</f>
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AQ85" s="16">
+      <c r="AQ85" s="15">
         <f t="shared" ref="AQ85" si="28">AQ83-AQ84</f>
         <v>-1</v>
       </c>
-      <c r="AR85" s="17">
+      <c r="AR85" s="16">
         <f t="shared" ref="AR85" si="29">AR83-AR84</f>
         <v>0.44444444444444464</v>
       </c>
-      <c r="AS85" s="3"/>
-    </row>
-    <row r="86" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS85" s="2"/>
+    </row>
+    <row r="86" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N86" s="1"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="3"/>
+      <c r="U86" s="2"/>
       <c r="W86" s="1"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
-      <c r="AB86" s="2"/>
-      <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="2"/>
-      <c r="AF86" s="2"/>
-      <c r="AG86" s="3"/>
+      <c r="AG86" s="2"/>
       <c r="AI86" s="1"/>
-      <c r="AJ86" s="2"/>
-      <c r="AK86" s="2"/>
-      <c r="AL86" s="2"/>
-      <c r="AM86" s="2"/>
-      <c r="AN86" s="2"/>
-      <c r="AO86" s="2"/>
-      <c r="AP86" s="2"/>
-      <c r="AQ86" s="2"/>
-      <c r="AR86" s="2"/>
-      <c r="AS86" s="3"/>
-    </row>
-    <row r="87" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS86" s="2"/>
+    </row>
+    <row r="87" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N87" s="1"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="3"/>
+      <c r="U87" s="2"/>
       <c r="W87" s="1"/>
-      <c r="X87" s="41" t="s">
+      <c r="X87" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y87" s="10" t="s">
+      <c r="Y87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z87" s="10" t="s">
+      <c r="Z87" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA87" s="10" t="s">
+      <c r="AA87" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AB87" s="10" t="s">
+      <c r="AB87" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AC87" s="29" t="s">
+      <c r="AC87" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AD87" s="31" t="s">
+      <c r="AD87" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AE87" s="29" t="s">
+      <c r="AE87" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF87" s="49" t="s">
+      <c r="AF87" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AG87" s="3"/>
+      <c r="AG87" s="2"/>
       <c r="AI87" s="1"/>
-      <c r="AJ87" s="9">
+      <c r="AJ87" s="8">
         <v>5</v>
       </c>
-      <c r="AK87" s="33">
-        <v>0</v>
-      </c>
-      <c r="AL87" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM87" s="33">
-        <v>0</v>
-      </c>
-      <c r="AN87" s="33">
+      <c r="AK87" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="31">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="31">
         <v>0.11111111111111112</v>
       </c>
-      <c r="AO87" s="33">
-        <v>0</v>
-      </c>
-      <c r="AP87" s="33">
+      <c r="AO87" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="31">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AQ87" s="33">
+      <c r="AQ87" s="31">
         <v>-1</v>
       </c>
-      <c r="AR87" s="34">
+      <c r="AR87" s="32">
         <v>0.44444444444444464</v>
       </c>
-      <c r="AS87" s="3"/>
-    </row>
-    <row r="88" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS87" s="2"/>
+    </row>
+    <row r="88" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N88" s="1"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="3"/>
+      <c r="U88" s="2"/>
       <c r="W88" s="1"/>
-      <c r="X88" s="40" t="s">
+      <c r="X88" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y88" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z88" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="35">
+      <c r="Y88" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="12">
         <v>0.88888888888888884</v>
       </c>
-      <c r="AC88" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="32">
+      <c r="AC88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="30">
         <v>0.55555555555555536</v>
       </c>
-      <c r="AE88" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF88" s="36">
+      <c r="AE88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="13">
         <v>40.555555555555557</v>
       </c>
-      <c r="AG88" s="3"/>
+      <c r="AG88" s="2"/>
       <c r="AI88" s="1"/>
-      <c r="AJ88" s="28" t="s">
+      <c r="AJ88" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AK88" s="16">
+      <c r="AK88" s="15">
         <f>AK87*-1</f>
         <v>0</v>
       </c>
-      <c r="AL88" s="16">
+      <c r="AL88" s="15">
         <f t="shared" ref="AL88:AR88" si="30">AL87*-1</f>
         <v>0</v>
       </c>
-      <c r="AM88" s="16">
+      <c r="AM88" s="15">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN88" s="16">
+      <c r="AN88" s="15">
         <f t="shared" si="30"/>
         <v>-0.11111111111111112</v>
       </c>
-      <c r="AO88" s="16">
+      <c r="AO88" s="15">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AP88" s="16">
+      <c r="AP88" s="15">
         <f t="shared" si="30"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AQ88" s="16">
+      <c r="AQ88" s="15">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="AR88" s="17">
+      <c r="AR88" s="16">
         <f t="shared" si="30"/>
         <v>-0.44444444444444464</v>
       </c>
-      <c r="AS88" s="3"/>
-    </row>
-    <row r="89" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS88" s="2"/>
+    </row>
+    <row r="89" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N89" s="1"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="3"/>
+      <c r="U89" s="2"/>
       <c r="W89" s="1"/>
-      <c r="X89" s="40">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="35">
-        <v>1</v>
-      </c>
-      <c r="AA89" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE89" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF89" s="36">
-        <v>1</v>
-      </c>
-      <c r="AG89" s="3"/>
+      <c r="X89" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG89" s="2"/>
       <c r="AI89" s="1"/>
-      <c r="AJ89" s="2"/>
-      <c r="AK89" s="2"/>
-      <c r="AL89" s="2"/>
-      <c r="AM89" s="2"/>
-      <c r="AN89" s="2"/>
-      <c r="AO89" s="2"/>
-      <c r="AP89" s="2"/>
-      <c r="AQ89" s="2"/>
-      <c r="AR89" s="2"/>
-      <c r="AS89" s="3"/>
-    </row>
-    <row r="90" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS89" s="2"/>
+    </row>
+    <row r="90" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N90" s="1"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="3"/>
+      <c r="U90" s="2"/>
       <c r="W90" s="1"/>
-      <c r="X90" s="40">
+      <c r="X90" s="11">
         <v>2</v>
       </c>
-      <c r="Y90" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z90" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB90" s="35">
+      <c r="Y90" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="12">
         <v>0.11111111111111112</v>
       </c>
-      <c r="AC90" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD90" s="32">
+      <c r="AC90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="30">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AE90" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF90" s="36">
+      <c r="AE90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="13">
         <v>4.4444444444444446</v>
       </c>
-      <c r="AG90" s="3"/>
+      <c r="AG90" s="2"/>
       <c r="AI90" s="1"/>
-      <c r="AJ90" s="41" t="s">
+      <c r="AJ90" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AK90" s="10" t="s">
+      <c r="AK90" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AL90" s="10" t="s">
+      <c r="AL90" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AM90" s="10" t="s">
+      <c r="AM90" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AN90" s="31" t="s">
+      <c r="AN90" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AO90" s="29" t="s">
+      <c r="AO90" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AP90" s="29" t="s">
+      <c r="AP90" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AQ90" s="29" t="s">
+      <c r="AQ90" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR90" s="49" t="s">
+      <c r="AR90" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AS90" s="3"/>
-    </row>
-    <row r="91" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS90" s="2"/>
+    </row>
+    <row r="91" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N91" s="1"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="3"/>
+      <c r="U91" s="2"/>
       <c r="W91" s="1"/>
-      <c r="X91" s="40">
+      <c r="X91" s="11">
         <v>3</v>
       </c>
-      <c r="Y91" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="35">
-        <v>1</v>
-      </c>
-      <c r="AB91" s="35">
+      <c r="Y91" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="12">
         <v>-0.1111111111111111</v>
       </c>
-      <c r="AC91" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="32">
+      <c r="AC91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="30">
         <v>-0.44444444444444448</v>
       </c>
-      <c r="AE91" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF91" s="36">
+      <c r="AE91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="13">
         <v>0.55555555555555558</v>
       </c>
-      <c r="AG91" s="3"/>
+      <c r="AG91" s="2"/>
       <c r="AI91" s="1"/>
-      <c r="AJ91" s="40" t="s">
+      <c r="AJ91" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AK91" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL91" s="35">
-        <v>0</v>
-      </c>
-      <c r="AM91" s="35">
-        <v>0</v>
-      </c>
-      <c r="AN91" s="32">
+      <c r="AK91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="30">
         <v>0.88888888888888884</v>
       </c>
-      <c r="AO91" s="35">
-        <v>0</v>
-      </c>
-      <c r="AP91" s="35">
+      <c r="AO91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="12">
         <v>0.55555555555555536</v>
       </c>
-      <c r="AQ91" s="35">
-        <v>0</v>
-      </c>
-      <c r="AR91" s="36">
+      <c r="AQ91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="13">
         <v>40.555555555555557</v>
       </c>
-      <c r="AS91" s="3"/>
-    </row>
-    <row r="92" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS91" s="2"/>
+    </row>
+    <row r="92" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N92" s="1"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="3"/>
+      <c r="U92" s="2"/>
       <c r="W92" s="1"/>
-      <c r="X92" s="40">
+      <c r="X92" s="11">
         <v>4</v>
       </c>
-      <c r="Y92" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z92" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB92" s="35">
+      <c r="Y92" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="12">
         <v>0.11111111111111112</v>
       </c>
-      <c r="AC92" s="35">
-        <v>1</v>
-      </c>
-      <c r="AD92" s="32">
+      <c r="AC92" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="30">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AE92" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF92" s="36">
+      <c r="AE92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="13">
         <v>0.44444444444444448</v>
       </c>
-      <c r="AG92" s="3"/>
+      <c r="AG92" s="2"/>
       <c r="AI92" s="1"/>
-      <c r="AJ92" s="40">
-        <v>1</v>
-      </c>
-      <c r="AK92" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL92" s="35">
-        <v>1</v>
-      </c>
-      <c r="AM92" s="35">
-        <v>0</v>
-      </c>
-      <c r="AN92" s="32">
-        <v>0</v>
-      </c>
-      <c r="AO92" s="35">
-        <v>0</v>
-      </c>
-      <c r="AP92" s="35">
-        <v>1</v>
-      </c>
-      <c r="AQ92" s="35">
-        <v>0</v>
-      </c>
-      <c r="AR92" s="36">
-        <v>1</v>
-      </c>
-      <c r="AS92" s="3"/>
-    </row>
-    <row r="93" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="30">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP92" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR92" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS92" s="2"/>
+    </row>
+    <row r="93" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N93" s="1"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="3"/>
+      <c r="U93" s="2"/>
       <c r="W93" s="1"/>
-      <c r="X93" s="61">
+      <c r="X93" s="46">
         <v>5</v>
       </c>
-      <c r="Y93" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB93" s="32">
+      <c r="Y93" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="30">
         <v>0.11111111111111112</v>
       </c>
-      <c r="AC93" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD93" s="32">
+      <c r="AC93" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="30">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AE93" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF93" s="62">
+      <c r="AE93" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF93" s="47">
         <v>-0.55555555555555536</v>
       </c>
-      <c r="AG93" s="3"/>
+      <c r="AG93" s="2"/>
       <c r="AI93" s="1"/>
-      <c r="AJ93" s="40">
+      <c r="AJ93" s="11">
         <v>2</v>
       </c>
-      <c r="AK93" s="35">
-        <v>1</v>
-      </c>
-      <c r="AL93" s="35">
-        <v>0</v>
-      </c>
-      <c r="AM93" s="35">
-        <v>0</v>
-      </c>
-      <c r="AN93" s="32">
+      <c r="AK93" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="30">
         <v>0.11111111111111112</v>
       </c>
-      <c r="AO93" s="35">
-        <v>0</v>
-      </c>
-      <c r="AP93" s="35">
+      <c r="AO93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="12">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AQ93" s="35">
-        <v>0</v>
-      </c>
-      <c r="AR93" s="36">
+      <c r="AQ93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="13">
         <v>4.4444444444444446</v>
       </c>
-      <c r="AS93" s="3"/>
-    </row>
-    <row r="94" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS93" s="2"/>
+    </row>
+    <row r="94" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N94" s="1"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="3"/>
+      <c r="U94" s="2"/>
       <c r="W94" s="1"/>
-      <c r="X94" s="63" t="s">
+      <c r="X94" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-      <c r="AD94" s="30">
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="28">
         <f>ABS(AD88/AD93)</f>
         <v>0.99999999999999956</v>
       </c>
-      <c r="AE94" s="6"/>
-      <c r="AF94" s="8"/>
-      <c r="AG94" s="3"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="2"/>
       <c r="AI94" s="1"/>
-      <c r="AJ94" s="40">
+      <c r="AJ94" s="11">
         <v>3</v>
       </c>
-      <c r="AK94" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL94" s="35">
-        <v>0</v>
-      </c>
-      <c r="AM94" s="35">
-        <v>1</v>
-      </c>
-      <c r="AN94" s="32">
+      <c r="AK94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN94" s="30">
         <v>-0.1111111111111111</v>
       </c>
-      <c r="AO94" s="35">
-        <v>0</v>
-      </c>
-      <c r="AP94" s="35">
+      <c r="AO94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="12">
         <v>-0.44444444444444448</v>
       </c>
-      <c r="AQ94" s="35">
-        <v>0</v>
-      </c>
-      <c r="AR94" s="36">
+      <c r="AQ94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR94" s="13">
         <v>0.55555555555555558</v>
       </c>
-      <c r="AS94" s="3"/>
-    </row>
-    <row r="95" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS94" s="2"/>
+    </row>
+    <row r="95" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N95" s="1"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="3"/>
+      <c r="U95" s="2"/>
       <c r="W95" s="1"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
-      <c r="AA95" s="2"/>
-      <c r="AB95" s="2"/>
-      <c r="AC95" s="2"/>
-      <c r="AD95" s="2"/>
-      <c r="AE95" s="2"/>
-      <c r="AF95" s="2"/>
-      <c r="AG95" s="3"/>
+      <c r="AG95" s="2"/>
       <c r="AI95" s="1"/>
-      <c r="AJ95" s="40">
+      <c r="AJ95" s="11">
         <v>4</v>
       </c>
-      <c r="AK95" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL95" s="35">
-        <v>0</v>
-      </c>
-      <c r="AM95" s="35">
-        <v>0</v>
-      </c>
-      <c r="AN95" s="32">
+      <c r="AK95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="30">
         <v>0.11111111111111112</v>
       </c>
-      <c r="AO95" s="35">
-        <v>1</v>
-      </c>
-      <c r="AP95" s="35">
+      <c r="AO95" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP95" s="12">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AQ95" s="35">
-        <v>0</v>
-      </c>
-      <c r="AR95" s="36">
+      <c r="AQ95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR95" s="13">
         <v>0.44444444444444448</v>
       </c>
-      <c r="AS95" s="3"/>
-    </row>
-    <row r="96" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS95" s="2"/>
+    </row>
+    <row r="96" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N96" s="1"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="3"/>
+      <c r="U96" s="2"/>
       <c r="W96" s="1"/>
-      <c r="X96" s="41" t="s">
+      <c r="X96" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y96" s="37" t="s">
+      <c r="Y96" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="Z96" s="37" t="s">
+      <c r="Z96" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AA96" s="29" t="s">
+      <c r="AA96" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB96" s="29" t="s">
+      <c r="AB96" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AC96" s="29" t="s">
+      <c r="AC96" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AD96" s="29" t="s">
+      <c r="AD96" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AE96" s="29" t="s">
+      <c r="AE96" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF96" s="64" t="s">
+      <c r="AF96" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AG96" s="3"/>
+      <c r="AG96" s="2"/>
       <c r="AI96" s="1"/>
-      <c r="AJ96" s="61">
+      <c r="AJ96" s="46">
         <v>5</v>
       </c>
-      <c r="AK96" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL96" s="32">
-        <v>0</v>
-      </c>
-      <c r="AM96" s="32">
-        <v>0</v>
-      </c>
-      <c r="AN96" s="32">
+      <c r="AK96" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="30">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="30">
         <v>-0.11111111111111112</v>
       </c>
-      <c r="AO96" s="32">
-        <v>0</v>
-      </c>
-      <c r="AP96" s="32">
+      <c r="AO96" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="30">
         <v>0.55555555555555558</v>
       </c>
-      <c r="AQ96" s="32">
-        <v>1</v>
-      </c>
-      <c r="AR96" s="62">
+      <c r="AQ96" s="30">
+        <v>1</v>
+      </c>
+      <c r="AR96" s="47">
         <v>-0.44444444444444464</v>
       </c>
-      <c r="AS96" s="3"/>
-    </row>
-    <row r="97" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS96" s="2"/>
+    </row>
+    <row r="97" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N97" s="1"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="3"/>
+      <c r="U97" s="2"/>
       <c r="W97" s="1"/>
-      <c r="X97" s="40" t="s">
+      <c r="X97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y97" s="35">
+      <c r="Y97" s="12">
         <f t="shared" ref="Y97:AF101" si="31">Y88-($AD88*Y$102)</f>
         <v>0</v>
       </c>
-      <c r="Z97" s="35">
+      <c r="Z97" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AA97" s="35">
+      <c r="AA97" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AB97" s="35">
+      <c r="AB97" s="12">
         <f t="shared" si="31"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AC97" s="35">
+      <c r="AC97" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AD97" s="35">
+      <c r="AD97" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AE97" s="35">
+      <c r="AE97" s="12">
         <f t="shared" si="31"/>
         <v>0.99999999999999956</v>
       </c>
-      <c r="AF97" s="39">
-        <f t="shared" si="31"/>
+      <c r="AF97" s="35">
+        <f>AF88-($AD88*AF$102)</f>
         <v>40</v>
       </c>
-      <c r="AG97" s="3"/>
+      <c r="AG97" s="2"/>
       <c r="AI97" s="1"/>
-      <c r="AJ97" s="63" t="s">
+      <c r="AJ97" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AK97" s="6"/>
-      <c r="AL97" s="6"/>
-      <c r="AM97" s="6"/>
-      <c r="AN97" s="30">
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+      <c r="AM97" s="5"/>
+      <c r="AN97" s="28">
         <f>ABS(AN91/AN96)</f>
         <v>7.9999999999999991</v>
       </c>
-      <c r="AO97" s="6"/>
-      <c r="AP97" s="6"/>
-      <c r="AQ97" s="6"/>
-      <c r="AR97" s="8"/>
-      <c r="AS97" s="3"/>
-    </row>
-    <row r="98" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO97" s="5"/>
+      <c r="AP97" s="5"/>
+      <c r="AQ97" s="5"/>
+      <c r="AR97" s="7"/>
+      <c r="AS97" s="2"/>
+    </row>
+    <row r="98" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N98" s="1"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="3"/>
+      <c r="U98" s="2"/>
       <c r="W98" s="1"/>
-      <c r="X98" s="40">
-        <v>1</v>
-      </c>
-      <c r="Y98" s="35">
+      <c r="X98" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Z98" s="38">
+      <c r="Z98" s="34">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="AA98" s="35">
+      <c r="AA98" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AB98" s="35">
+      <c r="AB98" s="12">
         <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
-      <c r="AC98" s="35">
+      <c r="AC98" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AD98" s="35">
+      <c r="AD98" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AE98" s="35">
+      <c r="AE98" s="12">
         <f t="shared" si="31"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AF98" s="39">
+      <c r="AF98" s="35">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG98" s="3"/>
+      <c r="AG98" s="2"/>
       <c r="AI98" s="1"/>
-      <c r="AJ98" s="2"/>
-      <c r="AK98" s="2"/>
-      <c r="AL98" s="2"/>
-      <c r="AM98" s="2"/>
-      <c r="AN98" s="2"/>
-      <c r="AO98" s="2"/>
-      <c r="AP98" s="2"/>
-      <c r="AQ98" s="2"/>
-      <c r="AR98" s="2"/>
-      <c r="AS98" s="3"/>
-    </row>
-    <row r="99" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS98" s="2"/>
+    </row>
+    <row r="99" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N99" s="1"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="3"/>
+      <c r="U99" s="2"/>
       <c r="W99" s="1"/>
-      <c r="X99" s="40">
+      <c r="X99" s="11">
         <v>2</v>
       </c>
-      <c r="Y99" s="38">
+      <c r="Y99" s="34">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="Z99" s="35">
+      <c r="Z99" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AA99" s="35">
+      <c r="AA99" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AB99" s="35">
+      <c r="AB99" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AC99" s="35">
+      <c r="AC99" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AD99" s="35">
+      <c r="AD99" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AE99" s="35">
+      <c r="AE99" s="12">
         <f t="shared" si="31"/>
         <v>-1</v>
       </c>
-      <c r="AF99" s="39">
+      <c r="AF99" s="35">
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="AG99" s="3"/>
+      <c r="AG99" s="2"/>
       <c r="AI99" s="1"/>
-      <c r="AJ99" s="41" t="s">
+      <c r="AJ99" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AK99" s="37" t="s">
+      <c r="AK99" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AL99" s="37" t="s">
+      <c r="AL99" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AM99" s="29" t="s">
+      <c r="AM99" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AN99" s="29" t="s">
+      <c r="AN99" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AO99" s="29" t="s">
+      <c r="AO99" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AP99" s="29" t="s">
+      <c r="AP99" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AQ99" s="29" t="s">
+      <c r="AQ99" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR99" s="64" t="s">
+      <c r="AR99" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AS99" s="3"/>
-    </row>
-    <row r="100" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS99" s="2"/>
+    </row>
+    <row r="100" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N100" s="1"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="3"/>
+      <c r="U100" s="2"/>
       <c r="W100" s="1"/>
-      <c r="X100" s="40">
+      <c r="X100" s="11">
         <v>3</v>
       </c>
-      <c r="Y100" s="35">
+      <c r="Y100" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Z100" s="35">
+      <c r="Z100" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AA100" s="35">
+      <c r="AA100" s="12">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="AB100" s="35">
+      <c r="AB100" s="12">
         <f t="shared" si="31"/>
         <v>-0.2</v>
       </c>
-      <c r="AC100" s="35">
+      <c r="AC100" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AD100" s="35">
+      <c r="AD100" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AE100" s="35">
+      <c r="AE100" s="12">
         <f t="shared" si="31"/>
         <v>-0.79999999999999993</v>
       </c>
-      <c r="AF100" s="36">
+      <c r="AF100" s="13">
         <f t="shared" si="31"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="AG100" s="3"/>
+      <c r="AG100" s="2"/>
       <c r="AI100" s="1"/>
-      <c r="AJ100" s="40" t="s">
+      <c r="AJ100" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AK100" s="35">
+      <c r="AK100" s="12">
         <f t="shared" ref="AK100:AR104" si="32">AK91-($AN91*AK$105)</f>
         <v>0</v>
       </c>
-      <c r="AL100" s="35">
+      <c r="AL100" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AM100" s="35">
+      <c r="AM100" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AN100" s="35">
+      <c r="AN100" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AO100" s="35">
+      <c r="AO100" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AP100" s="35">
+      <c r="AP100" s="12">
         <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="AQ100" s="35">
+      <c r="AQ100" s="12">
         <f t="shared" si="32"/>
         <v>8</v>
       </c>
-      <c r="AR100" s="39">
+      <c r="AR100" s="35">
         <f t="shared" si="32"/>
         <v>37</v>
       </c>
-      <c r="AS100" s="3"/>
-    </row>
-    <row r="101" spans="14:45" x14ac:dyDescent="0.25">
+      <c r="AS100" s="2"/>
+    </row>
+    <row r="101" spans="14:45" x14ac:dyDescent="0.35">
       <c r="N101" s="1"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="3"/>
+      <c r="U101" s="2"/>
       <c r="W101" s="1"/>
-      <c r="X101" s="40">
+      <c r="X101" s="11">
         <v>4</v>
       </c>
-      <c r="Y101" s="35">
+      <c r="Y101" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Z101" s="35">
+      <c r="Z101" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AA101" s="35">
+      <c r="AA101" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AB101" s="35">
+      <c r="AB101" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AC101" s="35">
+      <c r="AC101" s="12">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="AD101" s="35">
+      <c r="AD101" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AE101" s="35">
+      <c r="AE101" s="12">
         <f t="shared" si="31"/>
         <v>-1</v>
       </c>
-      <c r="AF101" s="36">
+      <c r="AF101" s="13">
         <f t="shared" si="31"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="AG101" s="3"/>
+      <c r="AG101" s="2"/>
       <c r="AI101" s="1"/>
-      <c r="AJ101" s="40">
-        <v>1</v>
-      </c>
-      <c r="AK101" s="35">
+      <c r="AJ101" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK101" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AL101" s="38">
+      <c r="AL101" s="34">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AM101" s="35">
+      <c r="AM101" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AN101" s="35">
+      <c r="AN101" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AO101" s="35">
+      <c r="AO101" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AP101" s="35">
+      <c r="AP101" s="12">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AQ101" s="35">
+      <c r="AQ101" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AR101" s="39">
+      <c r="AR101" s="35">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AS101" s="3"/>
-    </row>
-    <row r="102" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS101" s="2"/>
+    </row>
+    <row r="102" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N102" s="1"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="3"/>
+      <c r="U102" s="2"/>
       <c r="W102" s="1"/>
-      <c r="X102" s="48">
+      <c r="X102" s="14">
         <v>5</v>
       </c>
-      <c r="Y102" s="50">
+      <c r="Y102" s="15">
         <f t="shared" ref="Y102:AF102" si="33">Y93/$AD$93</f>
         <v>0</v>
       </c>
-      <c r="Z102" s="50">
+      <c r="Z102" s="15">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AA102" s="50">
+      <c r="AA102" s="15">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AB102" s="50">
+      <c r="AB102" s="15">
         <f t="shared" si="33"/>
         <v>-0.2</v>
       </c>
-      <c r="AC102" s="50">
+      <c r="AC102" s="15">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AD102" s="50">
+      <c r="AD102" s="15">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="AE102" s="50">
+      <c r="AE102" s="15">
         <f t="shared" si="33"/>
         <v>-1.7999999999999998</v>
       </c>
-      <c r="AF102" s="51">
+      <c r="AF102" s="16">
         <f t="shared" si="33"/>
         <v>0.99999999999999956</v>
       </c>
-      <c r="AG102" s="3"/>
+      <c r="AG102" s="2"/>
       <c r="AI102" s="1"/>
-      <c r="AJ102" s="40">
+      <c r="AJ102" s="11">
         <v>2</v>
       </c>
-      <c r="AK102" s="38">
+      <c r="AK102" s="34">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AL102" s="35">
+      <c r="AL102" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AM102" s="35">
+      <c r="AM102" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AN102" s="35">
+      <c r="AN102" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AO102" s="35">
+      <c r="AO102" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AP102" s="35">
+      <c r="AP102" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AQ102" s="35">
+      <c r="AQ102" s="12">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AR102" s="39">
+      <c r="AR102" s="35">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="AS102" s="3"/>
-    </row>
-    <row r="103" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS102" s="2"/>
+    </row>
+    <row r="103" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N103" s="1"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="3"/>
+      <c r="U103" s="2"/>
       <c r="W103" s="1"/>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
-      <c r="Z103" s="2"/>
-      <c r="AA103" s="2"/>
-      <c r="AB103" s="2"/>
-      <c r="AC103" s="2"/>
-      <c r="AD103" s="2"/>
-      <c r="AE103" s="2"/>
-      <c r="AF103" s="2"/>
-      <c r="AG103" s="3"/>
+      <c r="AG103" s="2"/>
       <c r="AI103" s="1"/>
-      <c r="AJ103" s="40">
+      <c r="AJ103" s="11">
         <v>3</v>
       </c>
-      <c r="AK103" s="35">
+      <c r="AK103" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AL103" s="35">
+      <c r="AL103" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AM103" s="35">
+      <c r="AM103" s="12">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AN103" s="35">
+      <c r="AN103" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AO103" s="35">
+      <c r="AO103" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AP103" s="35">
+      <c r="AP103" s="12">
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
-      <c r="AQ103" s="35">
+      <c r="AQ103" s="12">
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
-      <c r="AR103" s="36">
+      <c r="AR103" s="13">
         <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="AS103" s="3"/>
-    </row>
-    <row r="104" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N104" s="5"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="8"/>
+      <c r="AS103" s="2"/>
+    </row>
+    <row r="104" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N104" s="4"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="7"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="54" t="s">
+      <c r="X104" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="86" t="s">
+      <c r="Z104" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AA104" s="87"/>
-      <c r="AB104" s="88"/>
-      <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="2"/>
-      <c r="AF104" s="2"/>
-      <c r="AG104" s="3"/>
+      <c r="AA104" s="78"/>
+      <c r="AB104" s="79"/>
+      <c r="AG104" s="2"/>
       <c r="AI104" s="1"/>
-      <c r="AJ104" s="40">
+      <c r="AJ104" s="11">
         <v>4</v>
       </c>
-      <c r="AK104" s="35">
+      <c r="AK104" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AL104" s="35">
+      <c r="AL104" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AM104" s="35">
+      <c r="AM104" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AN104" s="35">
+      <c r="AN104" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AO104" s="35">
+      <c r="AO104" s="12">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AP104" s="35">
+      <c r="AP104" s="12">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AQ104" s="35">
+      <c r="AQ104" s="12">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AR104" s="36">
+      <c r="AR104" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS104" s="3"/>
-    </row>
-    <row r="105" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W105" s="5"/>
-      <c r="X105" s="6"/>
-      <c r="Y105" s="6"/>
-      <c r="Z105" s="6"/>
-      <c r="AA105" s="6"/>
-      <c r="AB105" s="6"/>
-      <c r="AC105" s="6"/>
-      <c r="AD105" s="6"/>
-      <c r="AE105" s="6"/>
-      <c r="AF105" s="6"/>
-      <c r="AG105" s="8"/>
+      <c r="AS104" s="2"/>
+    </row>
+    <row r="105" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W105" s="4"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+      <c r="AG105" s="7"/>
       <c r="AI105" s="1"/>
-      <c r="AJ105" s="48">
+      <c r="AJ105" s="14">
         <v>5</v>
       </c>
-      <c r="AK105" s="50">
+      <c r="AK105" s="15">
         <f t="shared" ref="AK105:AR105" si="34">AK96/$AN$96</f>
         <v>0</v>
       </c>
-      <c r="AL105" s="50">
+      <c r="AL105" s="15">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AM105" s="50">
+      <c r="AM105" s="15">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AN105" s="50">
+      <c r="AN105" s="15">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="AO105" s="50">
+      <c r="AO105" s="15">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AP105" s="50">
+      <c r="AP105" s="15">
         <f t="shared" si="34"/>
         <v>-5</v>
       </c>
-      <c r="AQ105" s="50">
+      <c r="AQ105" s="15">
         <f t="shared" si="34"/>
         <v>-9</v>
       </c>
-      <c r="AR105" s="51">
+      <c r="AR105" s="16">
         <f t="shared" si="34"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="AS105" s="3"/>
-    </row>
-    <row r="106" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS105" s="2"/>
+    </row>
+    <row r="106" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AI106" s="1"/>
-      <c r="AJ106" s="2"/>
-      <c r="AK106" s="2"/>
-      <c r="AL106" s="2"/>
-      <c r="AM106" s="2"/>
-      <c r="AN106" s="2"/>
-      <c r="AO106" s="2"/>
-      <c r="AP106" s="2"/>
-      <c r="AQ106" s="2"/>
-      <c r="AR106" s="2"/>
-      <c r="AS106" s="3"/>
-    </row>
-    <row r="107" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS106" s="2"/>
+    </row>
+    <row r="107" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AI107" s="1"/>
-      <c r="AJ107" s="86" t="s">
+      <c r="AJ107" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK107" s="87"/>
-      <c r="AL107" s="88"/>
-      <c r="AM107" s="2"/>
-      <c r="AN107" s="2"/>
-      <c r="AO107" s="2"/>
-      <c r="AP107" s="2"/>
-      <c r="AQ107" s="2"/>
-      <c r="AR107" s="2"/>
-      <c r="AS107" s="3"/>
-    </row>
-    <row r="108" spans="14:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI108" s="5"/>
-      <c r="AJ108" s="6"/>
-      <c r="AK108" s="6"/>
-      <c r="AL108" s="6"/>
-      <c r="AM108" s="6"/>
-      <c r="AN108" s="6"/>
-      <c r="AO108" s="6"/>
-      <c r="AP108" s="6"/>
-      <c r="AQ108" s="6"/>
-      <c r="AR108" s="6"/>
-      <c r="AS108" s="8"/>
+      <c r="AK107" s="78"/>
+      <c r="AL107" s="79"/>
+      <c r="AS107" s="2"/>
+    </row>
+    <row r="108" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI108" s="4"/>
+      <c r="AJ108" s="5"/>
+      <c r="AK108" s="5"/>
+      <c r="AL108" s="5"/>
+      <c r="AM108" s="5"/>
+      <c r="AN108" s="5"/>
+      <c r="AO108" s="5"/>
+      <c r="AP108" s="5"/>
+      <c r="AQ108" s="5"/>
+      <c r="AR108" s="5"/>
+      <c r="AS108" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="W81:AG81"/>
+    <mergeCell ref="Z104:AB104"/>
+    <mergeCell ref="V31:AC31"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="M50:S50"/>
+    <mergeCell ref="AJ107:AL107"/>
+    <mergeCell ref="AI81:AS81"/>
+    <mergeCell ref="X77:AE77"/>
+    <mergeCell ref="X78:AE78"/>
+    <mergeCell ref="N81:U81"/>
+    <mergeCell ref="N82:U82"/>
+    <mergeCell ref="AH53:AQ53"/>
+    <mergeCell ref="AH54:AQ54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="L53:U53"/>
+    <mergeCell ref="W53:AF53"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="C26:F26"/>
@@ -11214,23 +10429,6 @@
     <mergeCell ref="L9:Q9"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="L30:T30"/>
-    <mergeCell ref="AH53:AQ53"/>
-    <mergeCell ref="AH54:AQ54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="L53:U53"/>
-    <mergeCell ref="W53:AF53"/>
-    <mergeCell ref="AJ107:AL107"/>
-    <mergeCell ref="AI81:AS81"/>
-    <mergeCell ref="X77:AE77"/>
-    <mergeCell ref="X78:AE78"/>
-    <mergeCell ref="N81:U81"/>
-    <mergeCell ref="N82:U82"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="W81:AG81"/>
-    <mergeCell ref="Z104:AB104"/>
-    <mergeCell ref="V31:AC31"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="M50:S50"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
@@ -11240,6 +10438,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8e1a60f-3350-4a05-95d7-b25b2a175643">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="52dda859-a9e4-42d9-868d-de8ee1d200c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBB7728AE1D21D41AD9B35AAE0A4EC95" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70fd6f256f1bf16c6002372cc7597090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52dda859-a9e4-42d9-868d-de8ee1d200c2" xmlns:ns3="d8e1a60f-3350-4a05-95d7-b25b2a175643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33e0aed630b043b1251b270822dc15a4" ns2:_="" ns3:_="">
     <xsd:import namespace="52dda859-a9e4-42d9-868d-de8ee1d200c2"/>
@@ -11488,34 +10706,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8e1a60f-3350-4a05-95d7-b25b2a175643">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="52dda859-a9e4-42d9-868d-de8ee1d200c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C2490ED-4A50-4D0B-A0AD-272A925E63DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4A26C3-D7B6-468E-A9BD-A5832A81C6B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d8e1a60f-3350-4a05-95d7-b25b2a175643"/>
+    <ds:schemaRef ds:uri="52dda859-a9e4-42d9-868d-de8ee1d200c2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBDBB920-26F8-484C-B274-1DC96662BBFC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBDBB920-26F8-484C-B274-1DC96662BBFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4A26C3-D7B6-468E-A9BD-A5832A81C6B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C2490ED-4A50-4D0B-A0AD-272A925E63DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52dda859-a9e4-42d9-868d-de8ee1d200c2"/>
+    <ds:schemaRef ds:uri="d8e1a60f-3350-4a05-95d7-b25b2a175643"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Exercises/1. Integer Programming/Oakfield Corporation (Pure IP).xlsx
+++ b/Exercises/1. Integer Programming/Oakfield Corporation (Pure IP).xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="11" documentId="11_A39509E745F06C3EEAEF04B48CE96E870D28DB53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243577A5-F456-46BE-A39D-1E6694ED080F}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3940" yWindow="3940" windowWidth="19410" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integer Programming Model" sheetId="4" r:id="rId1"/>
@@ -5455,7 +5455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -5515,6 +5515,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5542,6 +5543,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5560,35 +5588,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5801,10 +5800,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6114,22 +6109,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -6137,20 +6132,20 @@
     </row>
     <row r="4" spans="2:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6171,53 +6166,53 @@
     </row>
     <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
@@ -6296,24 +6291,24 @@
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="5"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
@@ -6384,14 +6379,14 @@
     </row>
     <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
@@ -6499,8 +6494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AS108"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6545,25 +6540,25 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C4" t="s">
@@ -6578,7 +6573,6 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="84"/>
       <c r="I4" t="s">
         <v>29</v>
       </c>
@@ -6651,25 +6645,25 @@
     </row>
     <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="L9" s="71" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="L9" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="73"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="83"/>
     </row>
     <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
@@ -7040,24 +7034,24 @@
     </row>
     <row r="26" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
       <c r="J26" s="2"/>
       <c r="L26" s="1"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
       <c r="J27" s="2"/>
       <c r="L27" s="1"/>
       <c r="Q27" s="2"/>
@@ -7081,54 +7075,54 @@
     </row>
     <row r="29" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="62"/>
-      <c r="L30" s="60" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
+      <c r="L30" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="62"/>
-      <c r="V30" s="71" t="s">
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="63"/>
+      <c r="V30" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="73"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="83"/>
     </row>
     <row r="31" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="J31" s="2"/>
       <c r="L31" s="1"/>
       <c r="T31" s="2"/>
-      <c r="V31" s="74" t="s">
+      <c r="V31" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="77"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B32" s="57"/>
@@ -7927,15 +7921,15 @@
       </c>
       <c r="J49" s="2"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="68" t="s">
+      <c r="M49" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="N49" s="69"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="69"/>
-      <c r="R49" s="69"/>
-      <c r="S49" s="70"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="80"/>
       <c r="T49" s="2"/>
       <c r="V49" s="1"/>
       <c r="AC49" s="2"/>
@@ -7971,15 +7965,15 @@
       </c>
       <c r="J50" s="2"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="68" t="s">
+      <c r="M50" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="69"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="69"/>
-      <c r="R50" s="69"/>
-      <c r="S50" s="70"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="80"/>
       <c r="T50" s="2"/>
       <c r="V50" s="4"/>
       <c r="W50" s="5"/>
@@ -8005,11 +7999,11 @@
     </row>
     <row r="52" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="79"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="74"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8022,60 +8016,60 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="7"/>
-      <c r="L53" s="60" t="s">
+      <c r="L53" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="62"/>
-      <c r="W53" s="60" t="s">
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="63"/>
+      <c r="W53" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="61"/>
-      <c r="Z53" s="61"/>
-      <c r="AA53" s="61"/>
-      <c r="AB53" s="61"/>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="61"/>
-      <c r="AF53" s="62"/>
-      <c r="AH53" s="71" t="s">
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="62"/>
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="62"/>
+      <c r="AE53" s="62"/>
+      <c r="AF53" s="63"/>
+      <c r="AH53" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="AI53" s="72"/>
-      <c r="AJ53" s="72"/>
-      <c r="AK53" s="72"/>
-      <c r="AL53" s="72"/>
-      <c r="AM53" s="72"/>
-      <c r="AN53" s="72"/>
-      <c r="AO53" s="72"/>
-      <c r="AP53" s="72"/>
-      <c r="AQ53" s="73"/>
+      <c r="AI53" s="82"/>
+      <c r="AJ53" s="82"/>
+      <c r="AK53" s="82"/>
+      <c r="AL53" s="82"/>
+      <c r="AM53" s="82"/>
+      <c r="AN53" s="82"/>
+      <c r="AO53" s="82"/>
+      <c r="AP53" s="82"/>
+      <c r="AQ53" s="83"/>
     </row>
     <row r="54" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L54" s="1"/>
       <c r="U54" s="2"/>
       <c r="W54" s="1"/>
       <c r="AF54" s="2"/>
-      <c r="AH54" s="74" t="s">
+      <c r="AH54" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="AI54" s="75"/>
-      <c r="AJ54" s="75"/>
-      <c r="AK54" s="75"/>
-      <c r="AL54" s="75"/>
-      <c r="AM54" s="75"/>
-      <c r="AN54" s="75"/>
-      <c r="AO54" s="75"/>
-      <c r="AP54" s="75"/>
-      <c r="AQ54" s="76"/>
+      <c r="AI54" s="76"/>
+      <c r="AJ54" s="76"/>
+      <c r="AK54" s="76"/>
+      <c r="AL54" s="76"/>
+      <c r="AM54" s="76"/>
+      <c r="AN54" s="76"/>
+      <c r="AO54" s="76"/>
+      <c r="AP54" s="76"/>
+      <c r="AQ54" s="77"/>
     </row>
     <row r="55" spans="2:43" x14ac:dyDescent="0.35">
       <c r="L55" s="57"/>
@@ -8620,11 +8614,11 @@
     </row>
     <row r="66" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L66" s="1"/>
-      <c r="M66" s="80" t="s">
+      <c r="M66" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="81"/>
-      <c r="O66" s="82"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="71"/>
       <c r="U66" s="2"/>
       <c r="W66" s="1"/>
       <c r="X66" s="11">
@@ -8946,32 +8940,32 @@
     </row>
     <row r="77" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W77" s="1"/>
-      <c r="X77" s="68" t="s">
+      <c r="X77" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="Y77" s="69"/>
-      <c r="Z77" s="69"/>
-      <c r="AA77" s="69"/>
-      <c r="AB77" s="69"/>
-      <c r="AC77" s="69"/>
-      <c r="AD77" s="69"/>
-      <c r="AE77" s="70"/>
+      <c r="Y77" s="79"/>
+      <c r="Z77" s="79"/>
+      <c r="AA77" s="79"/>
+      <c r="AB77" s="79"/>
+      <c r="AC77" s="79"/>
+      <c r="AD77" s="79"/>
+      <c r="AE77" s="80"/>
       <c r="AF77" s="2"/>
       <c r="AH77" s="1"/>
       <c r="AQ77" s="2"/>
     </row>
     <row r="78" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W78" s="1"/>
-      <c r="X78" s="68" t="s">
+      <c r="X78" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="Y78" s="69"/>
-      <c r="Z78" s="69"/>
-      <c r="AA78" s="69"/>
-      <c r="AB78" s="69"/>
-      <c r="AC78" s="69"/>
-      <c r="AD78" s="69"/>
-      <c r="AE78" s="70"/>
+      <c r="Y78" s="79"/>
+      <c r="Z78" s="79"/>
+      <c r="AA78" s="79"/>
+      <c r="AB78" s="79"/>
+      <c r="AC78" s="79"/>
+      <c r="AD78" s="79"/>
+      <c r="AE78" s="80"/>
       <c r="AF78" s="2"/>
       <c r="AH78" s="4"/>
       <c r="AI78" s="5"/>
@@ -8998,54 +8992,54 @@
     </row>
     <row r="80" spans="12:43" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="81" spans="14:45" x14ac:dyDescent="0.35">
-      <c r="N81" s="71" t="s">
+      <c r="N81" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="O81" s="72"/>
-      <c r="P81" s="72"/>
-      <c r="Q81" s="72"/>
-      <c r="R81" s="72"/>
-      <c r="S81" s="72"/>
-      <c r="T81" s="72"/>
-      <c r="U81" s="73"/>
-      <c r="W81" s="60" t="s">
+      <c r="O81" s="82"/>
+      <c r="P81" s="82"/>
+      <c r="Q81" s="82"/>
+      <c r="R81" s="82"/>
+      <c r="S81" s="82"/>
+      <c r="T81" s="82"/>
+      <c r="U81" s="83"/>
+      <c r="W81" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="X81" s="61"/>
-      <c r="Y81" s="61"/>
-      <c r="Z81" s="61"/>
-      <c r="AA81" s="61"/>
-      <c r="AB81" s="61"/>
-      <c r="AC81" s="61"/>
-      <c r="AD81" s="61"/>
-      <c r="AE81" s="61"/>
-      <c r="AF81" s="61"/>
-      <c r="AG81" s="62"/>
-      <c r="AI81" s="60" t="s">
+      <c r="X81" s="62"/>
+      <c r="Y81" s="62"/>
+      <c r="Z81" s="62"/>
+      <c r="AA81" s="62"/>
+      <c r="AB81" s="62"/>
+      <c r="AC81" s="62"/>
+      <c r="AD81" s="62"/>
+      <c r="AE81" s="62"/>
+      <c r="AF81" s="62"/>
+      <c r="AG81" s="63"/>
+      <c r="AI81" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AJ81" s="61"/>
-      <c r="AK81" s="61"/>
-      <c r="AL81" s="61"/>
-      <c r="AM81" s="61"/>
-      <c r="AN81" s="61"/>
-      <c r="AO81" s="61"/>
-      <c r="AP81" s="61"/>
-      <c r="AQ81" s="61"/>
-      <c r="AR81" s="61"/>
-      <c r="AS81" s="62"/>
+      <c r="AJ81" s="62"/>
+      <c r="AK81" s="62"/>
+      <c r="AL81" s="62"/>
+      <c r="AM81" s="62"/>
+      <c r="AN81" s="62"/>
+      <c r="AO81" s="62"/>
+      <c r="AP81" s="62"/>
+      <c r="AQ81" s="62"/>
+      <c r="AR81" s="62"/>
+      <c r="AS81" s="63"/>
     </row>
     <row r="82" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N82" s="74" t="s">
+      <c r="N82" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="75"/>
-      <c r="T82" s="75"/>
-      <c r="U82" s="76"/>
+      <c r="O82" s="76"/>
+      <c r="P82" s="76"/>
+      <c r="Q82" s="76"/>
+      <c r="R82" s="76"/>
+      <c r="S82" s="76"/>
+      <c r="T82" s="76"/>
+      <c r="U82" s="77"/>
       <c r="W82" s="1"/>
       <c r="AG82" s="2"/>
       <c r="AI82" s="1"/>
@@ -10282,11 +10276,11 @@
       <c r="X104" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z104" s="77" t="s">
+      <c r="Z104" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AA104" s="78"/>
-      <c r="AB104" s="79"/>
+      <c r="AA104" s="73"/>
+      <c r="AB104" s="74"/>
       <c r="AG104" s="2"/>
       <c r="AI104" s="1"/>
       <c r="AJ104" s="11">
@@ -10382,11 +10376,11 @@
     </row>
     <row r="107" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AI107" s="1"/>
-      <c r="AJ107" s="77" t="s">
+      <c r="AJ107" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AK107" s="78"/>
-      <c r="AL107" s="79"/>
+      <c r="AK107" s="73"/>
+      <c r="AL107" s="74"/>
       <c r="AS107" s="2"/>
     </row>
     <row r="108" spans="14:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10404,23 +10398,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="W81:AG81"/>
-    <mergeCell ref="Z104:AB104"/>
-    <mergeCell ref="V31:AC31"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="AJ107:AL107"/>
-    <mergeCell ref="AI81:AS81"/>
-    <mergeCell ref="X77:AE77"/>
-    <mergeCell ref="X78:AE78"/>
-    <mergeCell ref="N81:U81"/>
-    <mergeCell ref="N82:U82"/>
-    <mergeCell ref="AH53:AQ53"/>
-    <mergeCell ref="AH54:AQ54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="L53:U53"/>
-    <mergeCell ref="W53:AF53"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="C26:F26"/>
@@ -10429,6 +10406,23 @@
     <mergeCell ref="L9:Q9"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="L30:T30"/>
+    <mergeCell ref="AH53:AQ53"/>
+    <mergeCell ref="AH54:AQ54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="L53:U53"/>
+    <mergeCell ref="W53:AF53"/>
+    <mergeCell ref="AJ107:AL107"/>
+    <mergeCell ref="AI81:AS81"/>
+    <mergeCell ref="X77:AE77"/>
+    <mergeCell ref="X78:AE78"/>
+    <mergeCell ref="N81:U81"/>
+    <mergeCell ref="N82:U82"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="W81:AG81"/>
+    <mergeCell ref="Z104:AB104"/>
+    <mergeCell ref="V31:AC31"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="M50:S50"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
@@ -10449,15 +10443,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBB7728AE1D21D41AD9B35AAE0A4EC95" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70fd6f256f1bf16c6002372cc7597090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52dda859-a9e4-42d9-868d-de8ee1d200c2" xmlns:ns3="d8e1a60f-3350-4a05-95d7-b25b2a175643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33e0aed630b043b1251b270822dc15a4" ns2:_="" ns3:_="">
     <xsd:import namespace="52dda859-a9e4-42d9-868d-de8ee1d200c2"/>
@@ -10706,6 +10691,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4A26C3-D7B6-468E-A9BD-A5832A81C6B1}">
   <ds:schemaRefs>
@@ -10718,14 +10712,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBDBB920-26F8-484C-B274-1DC96662BBFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C2490ED-4A50-4D0B-A0AD-272A925E63DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10742,4 +10728,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBDBB920-26F8-484C-B274-1DC96662BBFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>